--- a/backend.xlsx
+++ b/backend.xlsx
@@ -520,7 +520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -848,16 +848,50 @@
         <v>security</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>admin10</v>
+      </c>
+      <c r="C20" t="str">
+        <v>$2b$08$xAmsYy9Mvtx.qlxAM9ZAjOazh2aTgun2QwPKHdmWn7BepTZircMJ6</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" t="str">
+        <v>admin</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>admin11</v>
+      </c>
+      <c r="C21" t="str">
+        <v>$2b$08$wSEwc72Cq6K.GxhI2E9dPOb/VA64/qJmo29R1GVc/5qYlNGiGwIMW</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21" t="str">
+        <v>admin</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E21"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -879,88 +913,88 @@
         <v>weight_unit</v>
       </c>
       <c r="F1" t="str">
+        <v>invoice_amount</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sgst</v>
+      </c>
+      <c r="H1" t="str">
+        <v>cgst</v>
+      </c>
+      <c r="I1" t="str">
+        <v>tariff_hsn</v>
+      </c>
+      <c r="J1" t="str">
+        <v>vehicle_height</v>
+      </c>
+      <c r="K1" t="str">
+        <v>vehicle_height_option</v>
+      </c>
+      <c r="L1" t="str">
+        <v>toll</v>
+      </c>
+      <c r="M1" t="str">
+        <v>halting_days</v>
+      </c>
+      <c r="N1" t="str">
+        <v>halting_charge</v>
+      </c>
+      <c r="O1" t="str">
+        <v>extra_point_pickup</v>
+      </c>
+      <c r="P1" t="str">
+        <v>po_rate</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>actual_payable</v>
+      </c>
+      <c r="R1" t="str">
+        <v>debit_note</v>
+      </c>
+      <c r="S1" t="str">
         <v>created_by</v>
       </c>
-      <c r="G1" t="str">
+      <c r="T1" t="str">
         <v>created_at</v>
       </c>
-      <c r="H1" t="str">
+      <c r="U1" t="str">
         <v>stages</v>
       </c>
-      <c r="I1" t="str">
+      <c r="V1" t="str">
         <v>status</v>
       </c>
-      <c r="J1" t="str">
+      <c r="W1" t="str">
+        <v>trucks</v>
+      </c>
+      <c r="X1" t="str">
+        <v>transport_type</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>source_factory</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>dest_factories</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>trip_stages</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>eta_time_unit</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>eta_value</v>
+      </c>
+      <c r="AD1" t="str">
         <v>other_splits</v>
       </c>
-      <c r="K1" t="str">
+      <c r="AE1" t="str">
         <v>total_cost</v>
       </c>
-      <c r="L1" t="str">
+      <c r="AF1" t="str">
         <v>gst</v>
       </c>
-      <c r="M1" t="str">
+      <c r="AG1" t="str">
         <v>state_tax</v>
-      </c>
-      <c r="N1" t="str">
-        <v>trucks</v>
-      </c>
-      <c r="O1" t="str">
-        <v>transport_type</v>
-      </c>
-      <c r="P1" t="str">
-        <v>source_factory</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>dest_factories</v>
-      </c>
-      <c r="R1" t="str">
-        <v>invoice_amount</v>
-      </c>
-      <c r="S1" t="str">
-        <v>sgst</v>
-      </c>
-      <c r="T1" t="str">
-        <v>cgst</v>
-      </c>
-      <c r="U1" t="str">
-        <v>eta_time_unit</v>
-      </c>
-      <c r="V1" t="str">
-        <v>eta_value</v>
-      </c>
-      <c r="W1" t="str">
-        <v>tariff_hsn</v>
-      </c>
-      <c r="X1" t="str">
-        <v>vehicle_height</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>vehicle_height_option</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>toll</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>halting_days</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>halting_charge</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>extra_point_pickup</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>po_rate</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>actual_payable</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>debit_note</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>trip_stages</v>
       </c>
     </row>
     <row r="2">
@@ -979,28 +1013,28 @@
       <c r="E2" t="str">
         <v>kg</v>
       </c>
-      <c r="F2">
+      <c r="S2">
         <v>9</v>
       </c>
-      <c r="G2" t="str">
+      <c r="T2" t="str">
         <v>2025-07-14T00:19:47.743Z</v>
       </c>
-      <c r="H2" t="str">
+      <c r="U2" t="str">
         <v>[{"name":"Order Approved","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:19:58.862Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry Approved (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:04.624Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:16.757Z","comments":"Not satisfactory","action":"approve"},{"name":"Vehicle Exit (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:22.001Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:25.005Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:39.005Z","comments":"slightly low on consignment","action":"approve"},{"name":"Vehicle Exit (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:41.689Z","comments":"Stage approved","action":"approve"}]</v>
       </c>
-      <c r="I2" t="str">
+      <c r="V2" t="str">
         <v>completed</v>
       </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
+      <c r="AD2" t="str">
+        <v/>
+      </c>
+      <c r="AE2" t="str">
         <v>24345</v>
       </c>
-      <c r="L2" t="str">
+      <c r="AF2" t="str">
         <v>345</v>
       </c>
-      <c r="M2" t="str">
+      <c r="AG2" t="str">
         <v>234</v>
       </c>
     </row>
@@ -1020,28 +1054,28 @@
       <c r="E3" t="str">
         <v>kg</v>
       </c>
-      <c r="F3">
+      <c r="S3">
         <v>9</v>
       </c>
-      <c r="G3" t="str">
+      <c r="T3" t="str">
         <v>2025-07-14T00:25:45.406Z</v>
       </c>
-      <c r="H3" t="str">
+      <c r="U3" t="str">
         <v>[{"name":"Order Approved","status":"completed","approver":"admin1","timestamp":"2025-07-14T01:22:18.574Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry Approved (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T01:22:25.356Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T01:23:02.082Z","comments":"Vehicle reached with comments: approved post reject","action":"reached_with_comments"},{"name":"Vehicle Exit (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T07:22:56.081Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T07:22:58.170Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T09:52:56.957Z","comments":"Vehicle reached with comments: perfect","action":"reached_with_comments","department_name":"Admin"},{"name":"Vehicle Exit (Destination)","status":"completed","approver":"Dharmendra","timestamp":"2025-07-17T01:09:34.915Z","comments":"Stage approved","action":"approve","department_name":"Admin"}]</v>
       </c>
-      <c r="I3" t="str">
+      <c r="V3" t="str">
         <v>completed</v>
       </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
         <v>40000</v>
       </c>
-      <c r="L3" t="str">
+      <c r="AF3" t="str">
         <v>234</v>
       </c>
-      <c r="M3" t="str">
+      <c r="AG3" t="str">
         <v>435</v>
       </c>
     </row>
@@ -1061,28 +1095,28 @@
       <c r="E4" t="str">
         <v>kg</v>
       </c>
-      <c r="F4">
+      <c r="S4">
         <v>9</v>
       </c>
-      <c r="G4" t="str">
+      <c r="T4" t="str">
         <v>2025-07-14T00:35:03.005Z</v>
       </c>
-      <c r="H4" t="str">
+      <c r="U4" t="str">
         <v>[{"name":"Order Approved","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:21.578Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry Approved (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:23.493Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:30.372Z","comments":"good","action":"approve"},{"name":"Vehicle Exit (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:32.905Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:34.485Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:39.528Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Exit (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:41.490Z","comments":"Stage approved","action":"approve"}]</v>
       </c>
-      <c r="I4" t="str">
+      <c r="V4" t="str">
         <v>completed</v>
       </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="K4" t="str">
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
         <v>3454</v>
       </c>
-      <c r="L4" t="str">
+      <c r="AF4" t="str">
         <v>567</v>
       </c>
-      <c r="M4" t="str">
+      <c r="AG4" t="str">
         <v>43</v>
       </c>
     </row>
@@ -1102,41 +1136,41 @@
       <c r="E5" t="str">
         <v>kg</v>
       </c>
-      <c r="F5">
+      <c r="S5">
         <v>9</v>
       </c>
-      <c r="G5" t="str">
+      <c r="T5" t="str">
         <v>2025-07-14T01:31:17.902Z</v>
       </c>
-      <c r="H5" t="str">
+      <c r="U5" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:18:07.130Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:18:10.196Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:18:17.442Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:19:48.852Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:19:50.413Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:19:55.889Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:00.058Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:01.437Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:03.497Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:16.425Z","comments":"Vehicle reached with comments: fully satisfied","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:18.909Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:20.425Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:28.158Z","comments":"Vehicle reached with comments: perfect","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:30.006Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:32.245Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:34.326Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:39.356Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:41.111Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:43.064Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:48.519Z","comments":"Vehicle reached with comments: correct","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:50.645Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"}]</v>
       </c>
-      <c r="I5" t="str">
+      <c r="V5" t="str">
         <v>completed</v>
       </c>
-      <c r="J5" t="str">
-        <v/>
-      </c>
-      <c r="K5" t="str">
+      <c r="W5" t="str">
+        <v xml:space="preserve">KA06A9729                      </v>
+      </c>
+      <c r="X5" t="str">
+        <v>multiple</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>INNOVA Polypack</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>Rotech enginering,CHAKRAPANI VYAPAR PRIVATE LIMITED,INNOVA Polypack</v>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
         <v>3457</v>
       </c>
-      <c r="L5" t="str">
+      <c r="AF5" t="str">
         <v>567</v>
       </c>
-      <c r="M5" t="str">
+      <c r="AG5" t="str">
         <v>234</v>
-      </c>
-      <c r="N5" t="str">
-        <v xml:space="preserve">KA06A9729                      </v>
-      </c>
-      <c r="O5" t="str">
-        <v>multiple</v>
-      </c>
-      <c r="P5" t="str">
-        <v>INNOVA Polypack</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>Rotech enginering,CHAKRAPANI VYAPAR PRIVATE LIMITED,INNOVA Polypack</v>
       </c>
     </row>
     <row r="6">
@@ -1155,41 +1189,41 @@
       <c r="E6" t="str">
         <v>kg</v>
       </c>
-      <c r="F6">
+      <c r="S6">
         <v>9</v>
       </c>
-      <c r="G6" t="str">
+      <c r="T6" t="str">
         <v>2025-07-14T07:13:29.704Z</v>
       </c>
-      <c r="H6" t="str">
+      <c r="U6" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:35:45.153Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Vehicle Entry Approved (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:35:46.793Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Consignment Verification (SUNSHINE INDUSTRIES)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:35:54.883Z","comments":"Vehicle reached with comments: alsdkfjalsdk","action":"reached_with_comments","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Vehicle Exit (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:35:58.245Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Vehicle Entry (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:36:00.590Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:36:07.131Z","comments":"Vehicle reached with comments: dafdsfads","action":"reached_with_comments","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:36:09.246Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"}]</v>
       </c>
-      <c r="I6" t="str">
+      <c r="V6" t="str">
         <v>completed</v>
       </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
+      <c r="W6" t="str">
+        <v xml:space="preserve">KA150323                         </v>
+      </c>
+      <c r="X6" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>SUNSHINE INDUSTRIES</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>POLYLAM INDUSTRIES</v>
+      </c>
+      <c r="AD6" t="str">
+        <v/>
+      </c>
+      <c r="AE6" t="str">
         <v>500000</v>
       </c>
-      <c r="L6" t="str">
+      <c r="AF6" t="str">
         <v>659</v>
       </c>
-      <c r="M6" t="str">
+      <c r="AG6" t="str">
         <v>60</v>
-      </c>
-      <c r="N6" t="str">
-        <v xml:space="preserve">KA150323                         </v>
-      </c>
-      <c r="O6" t="str">
-        <v>single</v>
-      </c>
-      <c r="P6" t="str">
-        <v>SUNSHINE INDUSTRIES</v>
-      </c>
-      <c r="Q6" t="str">
-        <v>POLYLAM INDUSTRIES</v>
       </c>
     </row>
     <row r="7">
@@ -1208,41 +1242,41 @@
       <c r="E7" t="str">
         <v>kg</v>
       </c>
-      <c r="F7">
+      <c r="S7">
         <v>9</v>
       </c>
-      <c r="G7" t="str">
+      <c r="T7" t="str">
         <v>2025-07-14T07:24:05.397Z</v>
       </c>
-      <c r="H7" t="str">
+      <c r="U7" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:29.550Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Vehicle Entry Approved (Reliance Industries limited(Nelamangala))","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:34.165Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Consignment Verification (Reliance Industries limited(Nelamangala))","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:38.223Z","comments":"Vehicle reached with comments: adsfads","action":"reached_with_comments","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Vehicle Exit (Reliance Industries limited(Nelamangala))","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:40.091Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Vehicle Entry (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:42.026Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Consignment Verification (SUNSHINE INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:47.414Z","comments":"Vehicle reached with comments: asdfadsds","action":"reached_with_comments","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Vehicle Exit (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:49.522Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"}]</v>
       </c>
-      <c r="I7" t="str">
+      <c r="V7" t="str">
         <v>completed</v>
       </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-      <c r="K7" t="str">
+      <c r="W7" t="str">
+        <v xml:space="preserve">KA06AA3457                   </v>
+      </c>
+      <c r="X7" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>Reliance Industries limited(Nelamangala)</v>
+      </c>
+      <c r="Z7" t="str">
+        <v>SUNSHINE INDUSTRIES</v>
+      </c>
+      <c r="AD7" t="str">
+        <v/>
+      </c>
+      <c r="AE7" t="str">
         <v>787667</v>
       </c>
-      <c r="L7" t="str">
+      <c r="AF7" t="str">
         <v>678</v>
       </c>
-      <c r="M7" t="str">
+      <c r="AG7" t="str">
         <v>66</v>
-      </c>
-      <c r="N7" t="str">
-        <v xml:space="preserve">KA06AA3457                   </v>
-      </c>
-      <c r="O7" t="str">
-        <v>single</v>
-      </c>
-      <c r="P7" t="str">
-        <v>Reliance Industries limited(Nelamangala)</v>
-      </c>
-      <c r="Q7" t="str">
-        <v>SUNSHINE INDUSTRIES</v>
       </c>
     </row>
     <row r="8">
@@ -1261,41 +1295,41 @@
       <c r="E8" t="str">
         <v>kg</v>
       </c>
-      <c r="F8">
+      <c r="S8">
         <v>9</v>
       </c>
-      <c r="G8" t="str">
+      <c r="T8" t="str">
         <v>2025-07-14T07:51:32.395Z</v>
       </c>
-      <c r="H8" t="str">
+      <c r="U8" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:05:55.393Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:28.325Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:36.889Z","comments":"Vehicle reached with comments: test","action":"reached_with_comments","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:40.932Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Vehicle Entry (Reliance Industries limited(Nelamangala))","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:44.331Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Consignment Verification (Reliance Industries limited(Nelamangala))","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:53.129Z","comments":"Vehicle reached with comments: test1","action":"reached_with_comments","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Vehicle Exit (Reliance Industries limited(Nelamangala))","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:58.581Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"}]</v>
       </c>
-      <c r="I8" t="str">
+      <c r="V8" t="str">
         <v>completed</v>
       </c>
-      <c r="J8" t="str">
-        <v/>
-      </c>
-      <c r="K8" t="str">
+      <c r="W8" t="str">
+        <v xml:space="preserve">KA06AA2206                   </v>
+      </c>
+      <c r="X8" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>POLYLAM INDUSTRIES</v>
+      </c>
+      <c r="Z8" t="str">
+        <v>Reliance Industries limited(Nelamangala)</v>
+      </c>
+      <c r="AD8" t="str">
+        <v/>
+      </c>
+      <c r="AE8" t="str">
         <v>2345</v>
       </c>
-      <c r="L8" t="str">
+      <c r="AF8" t="str">
         <v>43</v>
       </c>
-      <c r="M8" t="str">
+      <c r="AG8" t="str">
         <v>456</v>
-      </c>
-      <c r="N8" t="str">
-        <v xml:space="preserve">KA06AA2206                   </v>
-      </c>
-      <c r="O8" t="str">
-        <v>single</v>
-      </c>
-      <c r="P8" t="str">
-        <v>POLYLAM INDUSTRIES</v>
-      </c>
-      <c r="Q8" t="str">
-        <v>Reliance Industries limited(Nelamangala)</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
@@ -1306,7 +1340,7 @@
         <v>RFP_ID#0008</v>
       </c>
       <c r="C9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Plastic bags
+        <v xml:space="preserve">Plastic bags_x000d__x000d_
 lasdkfjladskfasd</v>
       </c>
       <c r="D9" t="str">
@@ -1315,41 +1349,41 @@
       <c r="E9" t="str">
         <v>kg</v>
       </c>
-      <c r="F9">
+      <c r="S9">
         <v>9</v>
       </c>
-      <c r="G9" t="str">
+      <c r="T9" t="str">
         <v>2025-07-14T08:10:41.505Z</v>
       </c>
-      <c r="H9" t="str">
+      <c r="U9" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:10:54.018Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:11:01.118Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:11:31.281Z","comments":"Vehicle reached with comments: order spec accurate","action":"reached_with_comments","truck_number":"KA01 EF 1234"},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:11:37.531Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:11:39.400Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:12:19.194Z","comments":"Vehicle reached with comments: now it is fine","action":"reached_with_comments","truck_number":"KA01 EF 1234"},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:12:22.097Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"}]</v>
       </c>
-      <c r="I9" t="str">
+      <c r="V9" t="str">
         <v>completed</v>
       </c>
-      <c r="J9" t="str">
-        <v/>
-      </c>
-      <c r="K9" t="str">
+      <c r="W9" t="str">
+        <v>KA01 EF 1234</v>
+      </c>
+      <c r="X9" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>INNOVA Polypack</v>
+      </c>
+      <c r="Z9" t="str">
+        <v>Rotech enginering</v>
+      </c>
+      <c r="AD9" t="str">
+        <v/>
+      </c>
+      <c r="AE9" t="str">
         <v>20000</v>
       </c>
-      <c r="L9" t="str">
+      <c r="AF9" t="str">
         <v>560</v>
       </c>
-      <c r="M9" t="str">
+      <c r="AG9" t="str">
         <v>983</v>
-      </c>
-      <c r="N9" t="str">
-        <v>KA01 EF 1234</v>
-      </c>
-      <c r="O9" t="str">
-        <v>single</v>
-      </c>
-      <c r="P9" t="str">
-        <v>INNOVA Polypack</v>
-      </c>
-      <c r="Q9" t="str">
-        <v>Rotech enginering</v>
       </c>
     </row>
     <row r="10">
@@ -1368,41 +1402,41 @@
       <c r="E10" t="str">
         <v>kg</v>
       </c>
-      <c r="F10">
+      <c r="S10">
         <v>9</v>
       </c>
-      <c r="G10" t="str">
+      <c r="T10" t="str">
         <v>2025-07-14T08:48:45.101Z</v>
       </c>
-      <c r="H10" t="str">
+      <c r="U10" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "}]</v>
       </c>
-      <c r="I10" t="str">
+      <c r="V10" t="str">
         <v>open</v>
       </c>
-      <c r="J10" t="str">
-        <v/>
-      </c>
-      <c r="K10" t="str">
+      <c r="W10" t="str">
+        <v xml:space="preserve">KA04A7642                      </v>
+      </c>
+      <c r="X10" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>POLYLAM INDUSTRIES</v>
+      </c>
+      <c r="Z10" t="str">
+        <v>Rotech enginering</v>
+      </c>
+      <c r="AD10" t="str">
+        <v/>
+      </c>
+      <c r="AE10" t="str">
         <v>4568</v>
       </c>
-      <c r="L10" t="str">
+      <c r="AF10" t="str">
         <v>54</v>
       </c>
-      <c r="M10" t="str">
+      <c r="AG10" t="str">
         <v>34</v>
-      </c>
-      <c r="N10" t="str">
-        <v xml:space="preserve">KA04A7642                      </v>
-      </c>
-      <c r="O10" t="str">
-        <v>single</v>
-      </c>
-      <c r="P10" t="str">
-        <v>POLYLAM INDUSTRIES</v>
-      </c>
-      <c r="Q10" t="str">
-        <v>Rotech enginering</v>
       </c>
     </row>
     <row r="11">
@@ -1421,41 +1455,41 @@
       <c r="E11" t="str">
         <v>kg</v>
       </c>
-      <c r="F11">
+      <c r="S11">
         <v>9</v>
       </c>
-      <c r="G11" t="str">
+      <c r="T11" t="str">
         <v>2025-07-14T08:57:45.395Z</v>
       </c>
-      <c r="H11" t="str">
+      <c r="U11" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:03.504Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000"},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:04.956Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000"},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:15.317Z","comments":"Vehicle reached with comments: Good","action":"reached_with_comments","truck_number":"KA10AB0000"},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:19.264Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000"},{"name":"Vehicle Entry (GOTAWAT INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:21.730Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000"},{"name":"Consignment Verification (GOTAWAT INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:26.410Z","comments":"Vehicle reached with comments: asdfads","action":"reached_with_comments","truck_number":"KA10AB0000"},{"name":"Vehicle Exit (GOTAWAT INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T09:02:45.546Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000","department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-14T09:02:52.774Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000","department_name":"Admin"},{"name":"Vehicle Entry Approved (GOTAWAT INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T09:03:13.072Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000","department_name":"Admin"},{"name":"Consignment Verification (GOTAWAT INDUSTRIES)","role":"stores","status":"rejected","approver":"admin1","timestamp":"2025-07-14T09:03:22.996Z","comments":"Stage rejected. no full consignments","action":"reject","truck_number":"KA10AB0000","department_name":"Admin"},{"name":"Vehicle Exit (GOTAWAT INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Entry (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"}]</v>
       </c>
-      <c r="I11" t="str">
+      <c r="V11" t="str">
         <v>rejected</v>
       </c>
-      <c r="J11" t="str">
-        <v/>
-      </c>
-      <c r="K11" t="str">
+      <c r="W11" t="str">
+        <v>KA10AB0000</v>
+      </c>
+      <c r="X11" t="str">
+        <v>multiple</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>ABINANDAN PETRO PACK PVT LTD</v>
+      </c>
+      <c r="Z11" t="str">
+        <v>GOTAWAT INDUSTRIES,ABINANDAN PETRO PACK PVT LTD,Rotech enginering</v>
+      </c>
+      <c r="AD11" t="str">
+        <v/>
+      </c>
+      <c r="AE11" t="str">
         <v>234</v>
       </c>
-      <c r="L11" t="str">
+      <c r="AF11" t="str">
         <v>34</v>
       </c>
-      <c r="M11" t="str">
+      <c r="AG11" t="str">
         <v>43</v>
-      </c>
-      <c r="N11" t="str">
-        <v>KA10AB0000</v>
-      </c>
-      <c r="O11" t="str">
-        <v>multiple</v>
-      </c>
-      <c r="P11" t="str">
-        <v>ABINANDAN PETRO PACK PVT LTD</v>
-      </c>
-      <c r="Q11" t="str">
-        <v>GOTAWAT INDUSTRIES,ABINANDAN PETRO PACK PVT LTD,Rotech enginering</v>
       </c>
     </row>
     <row r="12">
@@ -1474,41 +1508,41 @@
       <c r="E12" t="str">
         <v>kg</v>
       </c>
-      <c r="F12">
+      <c r="S12">
         <v>9</v>
       </c>
-      <c r="G12" t="str">
+      <c r="T12" t="str">
         <v>2025-07-14T09:53:56.404Z</v>
       </c>
-      <c r="H12" t="str">
+      <c r="U12" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Vehicle Entry (ABHAY PACKAGING)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Consignment Verification (ABHAY PACKAGING)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Vehicle Exit (ABHAY PACKAGING)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "}]</v>
       </c>
-      <c r="I12" t="str">
+      <c r="V12" t="str">
         <v>open</v>
       </c>
-      <c r="J12" t="str">
-        <v/>
-      </c>
-      <c r="K12" t="str">
+      <c r="W12" t="str">
+        <v xml:space="preserve">KA16D0697                      </v>
+      </c>
+      <c r="X12" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>ABHAY PACKAGING</v>
+      </c>
+      <c r="AD12" t="str">
+        <v/>
+      </c>
+      <c r="AE12" t="str">
         <v>23245</v>
       </c>
-      <c r="L12" t="str">
+      <c r="AF12" t="str">
         <v>344</v>
       </c>
-      <c r="M12" t="str">
+      <c r="AG12" t="str">
         <v>34</v>
-      </c>
-      <c r="N12" t="str">
-        <v xml:space="preserve">KA16D0697                      </v>
-      </c>
-      <c r="O12" t="str">
-        <v>single</v>
-      </c>
-      <c r="P12" t="str">
-        <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
-      </c>
-      <c r="Q12" t="str">
-        <v>ABHAY PACKAGING</v>
       </c>
     </row>
     <row r="13">
@@ -1527,41 +1561,41 @@
       <c r="E13" t="str">
         <v>kg</v>
       </c>
-      <c r="F13">
+      <c r="S13">
         <v>9</v>
       </c>
-      <c r="G13" t="str">
+      <c r="T13" t="str">
         <v>2025-07-14T10:03:13.878Z</v>
       </c>
-      <c r="H13" t="str">
+      <c r="U13" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-14T10:03:20.402Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Vehicle Entry Approved (KAMAL TAPES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T10:03:23.254Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Consignment Verification (KAMAL TAPES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T10:03:29.819Z","comments":"Vehicle reached with comments: done","action":"reached_with_comments","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Vehicle Exit (KAMAL TAPES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-15T02:22:34.464Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Vehicle Entry (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-15T02:22:46.359Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-15T13:13:04.445Z","comments":"Vehicle reached with comments: flsdkfjldsk","action":"reached_with_comments","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-15T13:13:06.201Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"}]</v>
       </c>
-      <c r="I13" t="str">
+      <c r="V13" t="str">
         <v>completed</v>
       </c>
-      <c r="J13" t="str">
-        <v/>
-      </c>
-      <c r="K13" t="str">
+      <c r="W13" t="str">
+        <v>KA01TT1000</v>
+      </c>
+      <c r="X13" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>KAMAL TAPES</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
+      </c>
+      <c r="AD13" t="str">
+        <v/>
+      </c>
+      <c r="AE13" t="str">
         <v>2344</v>
       </c>
-      <c r="L13" t="str">
+      <c r="AF13" t="str">
         <v>34</v>
       </c>
-      <c r="M13" t="str">
+      <c r="AG13" t="str">
         <v>34</v>
-      </c>
-      <c r="N13" t="str">
-        <v>KA01TT1000</v>
-      </c>
-      <c r="O13" t="str">
-        <v>single</v>
-      </c>
-      <c r="P13" t="str">
-        <v>KAMAL TAPES</v>
-      </c>
-      <c r="Q13" t="str">
-        <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
       </c>
     </row>
     <row r="14">
@@ -1580,47 +1614,47 @@
       <c r="E14" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
+        <v>8000</v>
+      </c>
+      <c r="G14" t="str">
+        <v>200.00</v>
+      </c>
+      <c r="H14" t="str">
+        <v>200.00</v>
+      </c>
+      <c r="S14">
         <v>9</v>
       </c>
-      <c r="G14" t="str">
+      <c r="T14" t="str">
         <v>2025-07-15T12:27:40.633Z</v>
       </c>
-      <c r="H14" t="str">
+      <c r="U14" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "}]</v>
       </c>
-      <c r="I14" t="str">
+      <c r="V14" t="str">
         <v>open</v>
       </c>
-      <c r="J14" t="str">
-        <v/>
-      </c>
-      <c r="N14" t="str">
+      <c r="W14" t="str">
         <v xml:space="preserve">KA28B7371                      </v>
       </c>
-      <c r="O14" t="str">
+      <c r="X14" t="str">
         <v>single</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Y14" t="str">
         <v>INNOVA Polypack</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="Z14" t="str">
         <v>Rotech enginering</v>
       </c>
-      <c r="R14" t="str">
-        <v>8000</v>
-      </c>
-      <c r="S14" t="str">
-        <v>200.00</v>
-      </c>
-      <c r="T14" t="str">
-        <v>200.00</v>
-      </c>
-      <c r="U14" t="str">
+      <c r="AB14" t="str">
         <v>hours</v>
       </c>
-      <c r="V14">
+      <c r="AC14">
         <v>4</v>
+      </c>
+      <c r="AD14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1639,47 +1673,47 @@
       <c r="E15" t="str">
         <v>Number of items</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
+        <v>10000</v>
+      </c>
+      <c r="G15" t="str">
+        <v>250.00</v>
+      </c>
+      <c r="H15" t="str">
+        <v>250.00</v>
+      </c>
+      <c r="S15">
         <v>9</v>
       </c>
-      <c r="G15" t="str">
+      <c r="T15" t="str">
         <v>2025-07-15T12:29:24.796Z</v>
       </c>
-      <c r="H15" t="str">
+      <c r="U15" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Entry (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "}]</v>
       </c>
-      <c r="I15" t="str">
+      <c r="V15" t="str">
         <v>open</v>
       </c>
-      <c r="J15" t="str">
-        <v/>
-      </c>
-      <c r="N15" t="str">
+      <c r="W15" t="str">
         <v xml:space="preserve">KA01AL8433                    </v>
       </c>
-      <c r="O15" t="str">
+      <c r="X15" t="str">
         <v>single</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Y15" t="str">
         <v>ABINANDAN PETRO PACK PVT LTD</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="Z15" t="str">
         <v>POLYLAM INDUSTRIES</v>
       </c>
-      <c r="R15" t="str">
-        <v>10000</v>
-      </c>
-      <c r="S15" t="str">
-        <v>250.00</v>
-      </c>
-      <c r="T15" t="str">
-        <v>250.00</v>
-      </c>
-      <c r="U15" t="str">
+      <c r="AB15" t="str">
         <v>hours</v>
       </c>
-      <c r="V15">
+      <c r="AC15">
         <v>8</v>
+      </c>
+      <c r="AD15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1698,77 +1732,77 @@
       <c r="E16" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
+        <v>60000</v>
+      </c>
+      <c r="G16" t="str">
+        <v>1500.00</v>
+      </c>
+      <c r="H16" t="str">
+        <v>1500.00</v>
+      </c>
+      <c r="I16" t="str">
+        <v>35198</v>
+      </c>
+      <c r="J16" t="str">
+        <v>19</v>
+      </c>
+      <c r="K16" t="str">
+        <v>&gt;6 MT</v>
+      </c>
+      <c r="L16" t="str">
+        <v>500</v>
+      </c>
+      <c r="M16" t="str">
+        <v>1</v>
+      </c>
+      <c r="N16" t="str">
+        <v>100</v>
+      </c>
+      <c r="O16" t="str">
+        <v>1500</v>
+      </c>
+      <c r="P16" t="str">
+        <v>6900</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>10300.00</v>
+      </c>
+      <c r="R16" t="str">
+        <v>49700.00</v>
+      </c>
+      <c r="S16">
         <v>9</v>
       </c>
-      <c r="G16" t="str">
+      <c r="T16" t="str">
         <v>2025-07-16T10:15:21.047Z</v>
       </c>
-      <c r="H16" t="str">
+      <c r="U16" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Entry (Soliflex Packaging-1)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Consignment Verification (Soliflex Packaging-1)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Exit (Soliflex Packaging-1)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"}]</v>
       </c>
-      <c r="I16" t="str">
+      <c r="V16" t="str">
         <v>open</v>
       </c>
-      <c r="N16" t="str">
+      <c r="W16" t="str">
         <v>KA03EF8000</v>
       </c>
-      <c r="O16" t="str">
+      <c r="X16" t="str">
         <v>single</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Y16" t="str">
         <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="Z16" t="str">
         <v>Soliflex Packaging-1</v>
       </c>
-      <c r="R16" t="str">
-        <v>60000</v>
-      </c>
-      <c r="S16" t="str">
-        <v>1500.00</v>
-      </c>
-      <c r="T16" t="str">
-        <v>1500.00</v>
-      </c>
-      <c r="U16" t="str">
+      <c r="AA16" t="str">
+        <v/>
+      </c>
+      <c r="AB16" t="str">
         <v>hours</v>
       </c>
-      <c r="V16">
+      <c r="AC16">
         <v>10</v>
-      </c>
-      <c r="W16" t="str">
-        <v>35198</v>
-      </c>
-      <c r="X16" t="str">
-        <v>19</v>
-      </c>
-      <c r="Y16" t="str">
-        <v>&gt;6 MT</v>
-      </c>
-      <c r="Z16" t="str">
-        <v>500</v>
-      </c>
-      <c r="AA16" t="str">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="str">
-        <v>100</v>
-      </c>
-      <c r="AC16" t="str">
-        <v>1500</v>
-      </c>
-      <c r="AD16" t="str">
-        <v>6900</v>
-      </c>
-      <c r="AE16" t="str">
-        <v>10300.00</v>
-      </c>
-      <c r="AF16" t="str">
-        <v>49700.00</v>
-      </c>
-      <c r="AG16" t="str">
-        <v/>
       </c>
     </row>
     <row r="17">
@@ -1787,74 +1821,74 @@
       <c r="E17" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
+        <v>90000</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2250.00</v>
+      </c>
+      <c r="H17" t="str">
+        <v>2250.00</v>
+      </c>
+      <c r="I17" t="str">
+        <v>5768</v>
+      </c>
+      <c r="J17" t="str">
+        <v>80</v>
+      </c>
+      <c r="K17" t="str">
+        <v>&gt;6 MT</v>
+      </c>
+      <c r="L17" t="str">
+        <v>500</v>
+      </c>
+      <c r="M17" t="str">
+        <v>1</v>
+      </c>
+      <c r="N17" t="str">
+        <v>500</v>
+      </c>
+      <c r="O17" t="str">
+        <v>1000</v>
+      </c>
+      <c r="P17" t="str">
+        <v>5000</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>8300.00</v>
+      </c>
+      <c r="R17" t="str">
+        <v>81700.00</v>
+      </c>
+      <c r="S17">
         <v>9</v>
       </c>
-      <c r="G17" t="str">
+      <c r="T17" t="str">
         <v>2025-07-16T11:30:34.312Z</v>
       </c>
-      <c r="H17" t="str">
+      <c r="U17" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:31:53.833Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:31:56.166Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:08.395Z","comments":"Vehicle reached with comments: Good","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:13.335Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Entry (IndAutoFilters-1)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:15.048Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Consignment Verification (IndAutoFilters-1)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:24.581Z","comments":"Vehicle reached with comments: Good","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Exit (IndAutoFilters-1)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:27.714Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:33.053Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:34.862Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:41.427Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:44.034Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Entry (IndAutoFilters-4)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:46.129Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Consignment Verification (IndAutoFilters-4)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:57.001Z","comments":"Vehicle reached with comments: Best","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Exit (IndAutoFilters-4)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:59.331Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:01.512Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:04.517Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:10.718Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:13.415Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:15.016Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:20.169Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:23.433Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"}]</v>
       </c>
-      <c r="I17" t="str">
+      <c r="V17" t="str">
         <v>completed</v>
       </c>
-      <c r="N17" t="str">
+      <c r="W17" t="str">
         <v xml:space="preserve">KA16D0727                      </v>
       </c>
-      <c r="O17" t="str">
+      <c r="X17" t="str">
         <v>multiple</v>
       </c>
-      <c r="Q17" t="str">
-        <v/>
-      </c>
-      <c r="R17" t="str">
-        <v>90000</v>
-      </c>
-      <c r="S17" t="str">
-        <v>2250.00</v>
-      </c>
-      <c r="T17" t="str">
-        <v>2250.00</v>
-      </c>
-      <c r="U17" t="str">
+      <c r="Z17" t="str">
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <v>[{"id":1,"source":"POLYLAM INDUSTRIES","destination":"IndAutoFilters-1","sequence":1},{"id":2,"source":"CHAKRAPANI VYAPAR PRIVATE LIMITED","destination":"IndAutoFilters-4","sequence":2},{"id":3,"source":"CHAKRAPANI VYAPAR PRIVATE LIMITED","destination":"Soliflex Packaging-3","sequence":3}]</v>
+      </c>
+      <c r="AB17" t="str">
         <v>days</v>
       </c>
-      <c r="V17">
+      <c r="AC17">
         <v>4</v>
-      </c>
-      <c r="W17" t="str">
-        <v>5768</v>
-      </c>
-      <c r="X17" t="str">
-        <v>80</v>
-      </c>
-      <c r="Y17" t="str">
-        <v>&gt;6 MT</v>
-      </c>
-      <c r="Z17" t="str">
-        <v>500</v>
-      </c>
-      <c r="AA17" t="str">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="str">
-        <v>500</v>
-      </c>
-      <c r="AC17" t="str">
-        <v>1000</v>
-      </c>
-      <c r="AD17" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AE17" t="str">
-        <v>8300.00</v>
-      </c>
-      <c r="AF17" t="str">
-        <v>81700.00</v>
-      </c>
-      <c r="AG17" t="str">
-        <v>[{"id":1,"source":"POLYLAM INDUSTRIES","destination":"IndAutoFilters-1","sequence":1},{"id":2,"source":"CHAKRAPANI VYAPAR PRIVATE LIMITED","destination":"IndAutoFilters-4","sequence":2},{"id":3,"source":"CHAKRAPANI VYAPAR PRIVATE LIMITED","destination":"Soliflex Packaging-3","sequence":3}]</v>
       </c>
     </row>
     <row r="18">
@@ -1873,77 +1907,77 @@
       <c r="E18" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
+        <v>7000</v>
+      </c>
+      <c r="G18" t="str">
+        <v>175.00</v>
+      </c>
+      <c r="H18" t="str">
+        <v>175.00</v>
+      </c>
+      <c r="I18" t="str">
+        <v>5678</v>
+      </c>
+      <c r="J18" t="str">
+        <v>20</v>
+      </c>
+      <c r="K18" t="str">
+        <v>&gt;6 MT</v>
+      </c>
+      <c r="L18" t="str">
+        <v>500</v>
+      </c>
+      <c r="M18" t="str">
+        <v>2</v>
+      </c>
+      <c r="N18" t="str">
+        <v>200</v>
+      </c>
+      <c r="O18" t="str">
+        <v>500</v>
+      </c>
+      <c r="P18" t="str">
+        <v>6500</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>9200.00</v>
+      </c>
+      <c r="R18" t="str">
+        <v>-2200.00</v>
+      </c>
+      <c r="S18">
         <v>9</v>
       </c>
-      <c r="G18" t="str">
+      <c r="T18" t="str">
         <v>2025-07-16T12:20:58.133Z</v>
       </c>
-      <c r="H18" t="str">
+      <c r="U18" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Entry (IndAutoFilters-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Consignment Verification (IndAutoFilters-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Exit (IndAutoFilters-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "}]</v>
       </c>
-      <c r="I18" t="str">
+      <c r="V18" t="str">
         <v>open</v>
       </c>
-      <c r="N18" t="str">
+      <c r="W18" t="str">
         <v xml:space="preserve">KA06D8399                      </v>
       </c>
-      <c r="O18" t="str">
+      <c r="X18" t="str">
         <v>single</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Y18" t="str">
         <v>ABINANDAN PETRO PACK PVT LTD</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="Z18" t="str">
         <v>IndAutoFilters-2</v>
       </c>
-      <c r="R18" t="str">
-        <v>7000</v>
-      </c>
-      <c r="S18" t="str">
-        <v>175.00</v>
-      </c>
-      <c r="T18" t="str">
-        <v>175.00</v>
-      </c>
-      <c r="U18" t="str">
+      <c r="AA18" t="str">
+        <v/>
+      </c>
+      <c r="AB18" t="str">
         <v>hours</v>
       </c>
-      <c r="V18">
+      <c r="AC18">
         <v>4</v>
-      </c>
-      <c r="W18" t="str">
-        <v>5678</v>
-      </c>
-      <c r="X18" t="str">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="str">
-        <v>&gt;6 MT</v>
-      </c>
-      <c r="Z18" t="str">
-        <v>500</v>
-      </c>
-      <c r="AA18" t="str">
-        <v>2</v>
-      </c>
-      <c r="AB18" t="str">
-        <v>200</v>
-      </c>
-      <c r="AC18" t="str">
-        <v>500</v>
-      </c>
-      <c r="AD18" t="str">
-        <v>6500</v>
-      </c>
-      <c r="AE18" t="str">
-        <v>9200.00</v>
-      </c>
-      <c r="AF18" t="str">
-        <v>-2200.00</v>
-      </c>
-      <c r="AG18" t="str">
-        <v/>
       </c>
     </row>
     <row r="19">
@@ -1962,77 +1996,77 @@
       <c r="E19" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
+        <v>80000</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2000.00</v>
+      </c>
+      <c r="H19" t="str">
+        <v>2000.00</v>
+      </c>
+      <c r="I19" t="str">
+        <v>9485</v>
+      </c>
+      <c r="J19" t="str">
+        <v>7000</v>
+      </c>
+      <c r="K19" t="str">
+        <v>&gt;6 MT</v>
+      </c>
+      <c r="L19" t="str">
+        <v>600</v>
+      </c>
+      <c r="M19" t="str">
+        <v>1</v>
+      </c>
+      <c r="N19" t="str">
+        <v>500</v>
+      </c>
+      <c r="O19" t="str">
+        <v>2</v>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v>2402.00</v>
+      </c>
+      <c r="R19" t="str">
+        <v>77598.00</v>
+      </c>
+      <c r="S19">
         <v>9</v>
       </c>
-      <c r="G19" t="str">
+      <c r="T19" t="str">
         <v>2025-07-18T04:19:06.030Z</v>
       </c>
-      <c r="H19" t="str">
+      <c r="U19" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"}]</v>
       </c>
-      <c r="I19" t="str">
+      <c r="V19" t="str">
         <v>open</v>
       </c>
-      <c r="N19" t="str">
+      <c r="W19" t="str">
         <v>KA51AF2387                   ,ka03ec8000</v>
       </c>
-      <c r="O19" t="str">
+      <c r="X19" t="str">
         <v>single</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Y19" t="str">
         <v>BULK LIQUID SOLUTIONS</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="Z19" t="str">
         <v>Soliflex Packaging-2</v>
       </c>
-      <c r="R19" t="str">
-        <v>80000</v>
-      </c>
-      <c r="S19" t="str">
-        <v>2000.00</v>
-      </c>
-      <c r="T19" t="str">
-        <v>2000.00</v>
-      </c>
-      <c r="U19" t="str">
+      <c r="AA19" t="str">
+        <v/>
+      </c>
+      <c r="AB19" t="str">
         <v>hours</v>
       </c>
-      <c r="V19" t="str">
+      <c r="AC19" t="str">
         <v>50</v>
-      </c>
-      <c r="W19" t="str">
-        <v>9485</v>
-      </c>
-      <c r="X19" t="str">
-        <v>7000</v>
-      </c>
-      <c r="Y19" t="str">
-        <v>&gt;6 MT</v>
-      </c>
-      <c r="Z19" t="str">
-        <v>600</v>
-      </c>
-      <c r="AA19" t="str">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="str">
-        <v>500</v>
-      </c>
-      <c r="AC19" t="str">
-        <v>2</v>
-      </c>
-      <c r="AD19" t="str">
-        <v/>
-      </c>
-      <c r="AE19" t="str">
-        <v>2402.00</v>
-      </c>
-      <c r="AF19" t="str">
-        <v>77598.00</v>
-      </c>
-      <c r="AG19" t="str">
-        <v/>
       </c>
     </row>
     <row r="20">
@@ -2051,76 +2085,76 @@
       <c r="E20" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
+        <v>8000</v>
+      </c>
+      <c r="G20" t="str">
+        <v>200.00</v>
+      </c>
+      <c r="H20" t="str">
+        <v>200.00</v>
+      </c>
+      <c r="I20" t="str">
+        <v>56789</v>
+      </c>
+      <c r="J20" t="str">
+        <v>8000</v>
+      </c>
+      <c r="K20" t="str">
+        <v>&gt;6 MT</v>
+      </c>
+      <c r="L20" t="str">
+        <v>800</v>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v>2100.00</v>
+      </c>
+      <c r="R20" t="str">
+        <v>5900.00</v>
+      </c>
+      <c r="S20">
         <v>9</v>
       </c>
-      <c r="G20" t="str">
+      <c r="T20" t="str">
         <v>2025-07-18T10:07:16.499Z</v>
       </c>
-      <c r="H20" t="str">
+      <c r="U20" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Entry (GOTAWAT INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Consignment Verification (GOTAWAT INDUSTRIES)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Exit (GOTAWAT INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"}]</v>
       </c>
-      <c r="I20" t="str">
+      <c r="V20" t="str">
         <v>open</v>
       </c>
-      <c r="N20" t="str">
+      <c r="W20" t="str">
         <v>KA03EF5000</v>
       </c>
-      <c r="O20" t="str">
+      <c r="X20" t="str">
         <v>single</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Y20" t="str">
         <v>BULK LIQUID SOLUTIONS</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="Z20" t="str">
         <v>GOTAWAT INDUSTRIES</v>
       </c>
-      <c r="R20" t="str">
-        <v>8000</v>
-      </c>
-      <c r="S20" t="str">
-        <v>200.00</v>
-      </c>
-      <c r="T20" t="str">
-        <v>200.00</v>
-      </c>
-      <c r="U20" t="str">
+      <c r="AA20" t="str">
+        <v/>
+      </c>
+      <c r="AB20" t="str">
         <v>hours</v>
       </c>
-      <c r="V20" t="str">
-        <v/>
-      </c>
-      <c r="W20" t="str">
-        <v>56789</v>
-      </c>
-      <c r="X20" t="str">
-        <v>8000</v>
-      </c>
-      <c r="Y20" t="str">
-        <v>&gt;6 MT</v>
-      </c>
-      <c r="Z20" t="str">
-        <v>800</v>
-      </c>
-      <c r="AA20" t="str">
-        <v/>
-      </c>
-      <c r="AB20" t="str">
-        <v/>
-      </c>
       <c r="AC20" t="str">
-        <v/>
-      </c>
-      <c r="AD20" t="str">
-        <v/>
-      </c>
-      <c r="AE20" t="str">
-        <v>2100.00</v>
-      </c>
-      <c r="AF20" t="str">
-        <v>5900.00</v>
-      </c>
-      <c r="AG20" t="str">
         <v/>
       </c>
     </row>
@@ -2140,77 +2174,77 @@
       <c r="E21" t="str">
         <v>Wastage</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
+        <v>60000</v>
+      </c>
+      <c r="G21" t="str">
+        <v>1500.00</v>
+      </c>
+      <c r="H21" t="str">
+        <v>1500.00</v>
+      </c>
+      <c r="I21" t="str">
+        <v>568790</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v>Other</v>
+      </c>
+      <c r="L21" t="str">
+        <v>400</v>
+      </c>
+      <c r="M21" t="str">
+        <v>1</v>
+      </c>
+      <c r="N21" t="str">
+        <v>500</v>
+      </c>
+      <c r="O21" t="str">
+        <v>600</v>
+      </c>
+      <c r="P21" t="str">
+        <v>50000</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>51500.00</v>
+      </c>
+      <c r="R21" t="str">
+        <v>8500.00</v>
+      </c>
+      <c r="S21">
         <v>9</v>
       </c>
-      <c r="G21" t="str">
+      <c r="T21" t="str">
         <v>2025-07-19T16:26:27.801Z</v>
       </c>
-      <c r="H21" t="str">
+      <c r="U21" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:40.880Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Entry Approved (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:43.446Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Consignment Verification (SUNSHINE INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:49.048Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Exit (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:52.136Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:54.015Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:27:00.187Z","comments":"Vehicle reached with comments: 8954","action":"reached_with_comments","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:27:02.828Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"}]</v>
       </c>
-      <c r="I21" t="str">
+      <c r="V21" t="str">
         <v>completed</v>
       </c>
-      <c r="N21" t="str">
+      <c r="W21" t="str">
         <v xml:space="preserve">KA02AB1409                   </v>
       </c>
-      <c r="O21" t="str">
+      <c r="X21" t="str">
         <v>single</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Y21" t="str">
         <v>SUNSHINE INDUSTRIES</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="Z21" t="str">
         <v>Soliflex Packaging-2</v>
       </c>
-      <c r="R21" t="str">
-        <v>60000</v>
-      </c>
-      <c r="S21" t="str">
-        <v>1500.00</v>
-      </c>
-      <c r="T21" t="str">
-        <v>1500.00</v>
-      </c>
-      <c r="U21" t="str">
+      <c r="AA21" t="str">
+        <v/>
+      </c>
+      <c r="AB21" t="str">
         <v>hours</v>
       </c>
-      <c r="V21" t="str">
+      <c r="AC21" t="str">
         <v>5</v>
-      </c>
-      <c r="W21" t="str">
-        <v>568790</v>
-      </c>
-      <c r="X21" t="str">
-        <v/>
-      </c>
-      <c r="Y21" t="str">
-        <v>Other</v>
-      </c>
-      <c r="Z21" t="str">
-        <v>400</v>
-      </c>
-      <c r="AA21" t="str">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="str">
-        <v>500</v>
-      </c>
-      <c r="AC21" t="str">
-        <v>600</v>
-      </c>
-      <c r="AD21" t="str">
-        <v>50000</v>
-      </c>
-      <c r="AE21" t="str">
-        <v>51500.00</v>
-      </c>
-      <c r="AF21" t="str">
-        <v>8500.00</v>
-      </c>
-      <c r="AG21" t="str">
-        <v/>
       </c>
     </row>
     <row r="22">
@@ -2229,77 +2263,77 @@
       <c r="E22" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
+        <v>10000</v>
+      </c>
+      <c r="G22" t="str">
+        <v>250.00</v>
+      </c>
+      <c r="H22" t="str">
+        <v>250.00</v>
+      </c>
+      <c r="I22" t="str">
+        <v>54656</v>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v>&gt; 10 MT</v>
+      </c>
+      <c r="L22" t="str">
+        <v>300</v>
+      </c>
+      <c r="M22" t="str">
+        <v>1</v>
+      </c>
+      <c r="N22" t="str">
+        <v>500</v>
+      </c>
+      <c r="O22" t="str">
+        <v>4</v>
+      </c>
+      <c r="P22" t="str">
+        <v>10000</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>10804.00</v>
+      </c>
+      <c r="R22" t="str">
+        <v>-804.00</v>
+      </c>
+      <c r="S22">
         <v>9</v>
       </c>
-      <c r="G22" t="str">
+      <c r="T22" t="str">
         <v>2025-07-21T14:15:48.132Z</v>
       </c>
-      <c r="H22" t="str">
+      <c r="U22" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:03.830Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:05.337Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:14.765Z","comments":"Vehicle reached with comments: satisfactory","action":"reached_with_comments","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:17.777Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:19.449Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:27.392Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:29.706Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"}]</v>
       </c>
-      <c r="I22" t="str">
+      <c r="V22" t="str">
         <v>completed</v>
       </c>
-      <c r="N22" t="str">
+      <c r="W22" t="str">
         <v xml:space="preserve">KA06C5133                      </v>
       </c>
-      <c r="O22" t="str">
+      <c r="X22" t="str">
         <v>single</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Y22" t="str">
         <v>POLYLAM INDUSTRIES</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="Z22" t="str">
         <v>Soliflex Packaging-3</v>
       </c>
-      <c r="R22" t="str">
-        <v>10000</v>
-      </c>
-      <c r="S22" t="str">
-        <v>250.00</v>
-      </c>
-      <c r="T22" t="str">
-        <v>250.00</v>
-      </c>
-      <c r="U22" t="str">
+      <c r="AA22" t="str">
+        <v/>
+      </c>
+      <c r="AB22" t="str">
         <v>hours</v>
       </c>
-      <c r="V22" t="str">
+      <c r="AC22" t="str">
         <v>8</v>
-      </c>
-      <c r="W22" t="str">
-        <v>54656</v>
-      </c>
-      <c r="X22" t="str">
-        <v/>
-      </c>
-      <c r="Y22" t="str">
-        <v>&gt; 10 MT</v>
-      </c>
-      <c r="Z22" t="str">
-        <v>300</v>
-      </c>
-      <c r="AA22" t="str">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="str">
-        <v>500</v>
-      </c>
-      <c r="AC22" t="str">
-        <v>4</v>
-      </c>
-      <c r="AD22" t="str">
-        <v>10000</v>
-      </c>
-      <c r="AE22" t="str">
-        <v>10804.00</v>
-      </c>
-      <c r="AF22" t="str">
-        <v>-804.00</v>
-      </c>
-      <c r="AG22" t="str">
-        <v/>
       </c>
     </row>
     <row r="23">
@@ -2318,77 +2352,77 @@
       <c r="E23" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
+        <v>15000</v>
+      </c>
+      <c r="G23" t="str">
+        <v>375.00</v>
+      </c>
+      <c r="H23" t="str">
+        <v>375.00</v>
+      </c>
+      <c r="I23" t="str">
+        <v>65789</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>&gt; 10 MT</v>
+      </c>
+      <c r="L23" t="str">
+        <v>300</v>
+      </c>
+      <c r="M23" t="str">
+        <v>1</v>
+      </c>
+      <c r="N23" t="str">
+        <v>200</v>
+      </c>
+      <c r="O23" t="str">
+        <v>1</v>
+      </c>
+      <c r="P23" t="str">
+        <v>15000</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>15501.00</v>
+      </c>
+      <c r="R23" t="str">
+        <v>-501.00</v>
+      </c>
+      <c r="S23">
         <v>17</v>
       </c>
-      <c r="G23" t="str">
+      <c r="T23" t="str">
         <v>2025-07-21T14:42:36.009Z</v>
       </c>
-      <c r="H23" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"Accounts1","timestamp":"2025-07-21T14:42:46.160Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Accounts Team"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"completed","approver":"security2","timestamp":"2025-07-24T10:22:57.161Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Security-Factory 2"},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "}]</v>
-      </c>
-      <c r="I23" t="str">
-        <v>in_progress</v>
-      </c>
-      <c r="N23" t="str">
+      <c r="U23" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"Accounts1","timestamp":"2025-07-21T14:42:46.160Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Accounts Team"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"completed","approver":"security2","timestamp":"2025-07-24T10:22:57.161Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Security-Factory 2"},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"completed","approver":"admin10","timestamp":"2025-08-04T00:52:03.382Z","comments":"Vehicle reached with comments: dsfads","action":"reached_with_comments","truck_number":"KA01AB2195                   ","department_name":"Admin"},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"completed","approver":"admin10","timestamp":"2025-08-04T00:52:05.080Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin10","timestamp":"2025-08-04T00:52:07.300Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"completed","approver":"admin10","timestamp":"2025-08-04T00:52:10.861Z","comments":"Vehicle reached with comments: adfads","action":"reached_with_comments","truck_number":"KA01AB2195                   ","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin10","timestamp":"2025-08-04T00:52:12.847Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Admin"}]</v>
+      </c>
+      <c r="V23" t="str">
+        <v>completed</v>
+      </c>
+      <c r="W23" t="str">
         <v xml:space="preserve">KA01AB2195                   </v>
       </c>
-      <c r="O23" t="str">
+      <c r="X23" t="str">
         <v>single</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Y23" t="str">
         <v>BULK LIQUID SOLUTIONS</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="Z23" t="str">
         <v>Soliflex Packaging-2</v>
       </c>
-      <c r="R23" t="str">
-        <v>15000</v>
-      </c>
-      <c r="S23" t="str">
-        <v>375.00</v>
-      </c>
-      <c r="T23" t="str">
-        <v>375.00</v>
-      </c>
-      <c r="U23" t="str">
+      <c r="AA23" t="str">
+        <v/>
+      </c>
+      <c r="AB23" t="str">
         <v>hours</v>
       </c>
-      <c r="V23" t="str">
+      <c r="AC23" t="str">
         <v>8</v>
-      </c>
-      <c r="W23" t="str">
-        <v>65789</v>
-      </c>
-      <c r="X23" t="str">
-        <v/>
-      </c>
-      <c r="Y23" t="str">
-        <v>&gt; 10 MT</v>
-      </c>
-      <c r="Z23" t="str">
-        <v>300</v>
-      </c>
-      <c r="AA23" t="str">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="str">
-        <v>200</v>
-      </c>
-      <c r="AC23" t="str">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="str">
-        <v>15000</v>
-      </c>
-      <c r="AE23" t="str">
-        <v>15501.00</v>
-      </c>
-      <c r="AF23" t="str">
-        <v>-501.00</v>
-      </c>
-      <c r="AG23" t="str">
-        <v/>
       </c>
     </row>
     <row r="24">
@@ -2407,77 +2441,77 @@
       <c r="E24" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
+        <v>9000</v>
+      </c>
+      <c r="G24" t="str">
+        <v>225.00</v>
+      </c>
+      <c r="H24" t="str">
+        <v>225.00</v>
+      </c>
+      <c r="I24" t="str">
+        <v>ertyui</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v>&gt; 10 MT</v>
+      </c>
+      <c r="L24" t="str">
+        <v>400</v>
+      </c>
+      <c r="M24" t="str">
+        <v>1</v>
+      </c>
+      <c r="N24" t="str">
+        <v>500</v>
+      </c>
+      <c r="O24" t="str">
+        <v>3</v>
+      </c>
+      <c r="P24" t="str">
+        <v>15000</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>15903.00</v>
+      </c>
+      <c r="R24" t="str">
+        <v>-6903.00</v>
+      </c>
+      <c r="S24">
         <v>17</v>
       </c>
-      <c r="G24" t="str">
+      <c r="T24" t="str">
         <v>2025-07-23T10:03:09.178Z</v>
       </c>
-      <c r="H24" t="str">
+      <c r="U24" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "}]</v>
       </c>
-      <c r="I24" t="str">
+      <c r="V24" t="str">
         <v>open</v>
       </c>
-      <c r="N24" t="str">
+      <c r="W24" t="str">
         <v xml:space="preserve">KA06AB2096                   </v>
       </c>
-      <c r="O24" t="str">
+      <c r="X24" t="str">
         <v>single</v>
       </c>
-      <c r="P24" t="str">
+      <c r="Y24" t="str">
         <v>INNOVA Polypack</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="Z24" t="str">
         <v>Soliflex Packaging-3</v>
       </c>
-      <c r="R24" t="str">
-        <v>9000</v>
-      </c>
-      <c r="S24" t="str">
-        <v>225.00</v>
-      </c>
-      <c r="T24" t="str">
-        <v>225.00</v>
-      </c>
-      <c r="U24" t="str">
+      <c r="AA24" t="str">
+        <v/>
+      </c>
+      <c r="AB24" t="str">
         <v>days</v>
       </c>
-      <c r="V24" t="str">
+      <c r="AC24" t="str">
         <v>5</v>
-      </c>
-      <c r="W24" t="str">
-        <v>ertyui</v>
-      </c>
-      <c r="X24" t="str">
-        <v/>
-      </c>
-      <c r="Y24" t="str">
-        <v>&gt; 10 MT</v>
-      </c>
-      <c r="Z24" t="str">
-        <v>400</v>
-      </c>
-      <c r="AA24" t="str">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="str">
-        <v>500</v>
-      </c>
-      <c r="AC24" t="str">
-        <v>3</v>
-      </c>
-      <c r="AD24" t="str">
-        <v>15000</v>
-      </c>
-      <c r="AE24" t="str">
-        <v>15903.00</v>
-      </c>
-      <c r="AF24" t="str">
-        <v>-6903.00</v>
-      </c>
-      <c r="AG24" t="str">
-        <v/>
       </c>
     </row>
     <row r="25">
@@ -2496,82 +2530,727 @@
       <c r="E25" t="str">
         <v>Rolls</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
+        <v>7000</v>
+      </c>
+      <c r="G25" t="str">
+        <v>175.00</v>
+      </c>
+      <c r="H25" t="str">
+        <v>175.00</v>
+      </c>
+      <c r="I25" t="str">
+        <v>57648</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v>&gt; 6 MT</v>
+      </c>
+      <c r="L25" t="str">
+        <v>800</v>
+      </c>
+      <c r="M25" t="str">
+        <v>0</v>
+      </c>
+      <c r="N25" t="str">
+        <v>0</v>
+      </c>
+      <c r="O25" t="str">
+        <v>0</v>
+      </c>
+      <c r="P25" t="str">
+        <v>7000</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>7800.00</v>
+      </c>
+      <c r="R25" t="str">
+        <v>-800.00</v>
+      </c>
+      <c r="S25">
         <v>17</v>
       </c>
-      <c r="G25" t="str">
+      <c r="T25" t="str">
         <v>2025-07-24T08:33:15.590Z</v>
       </c>
-      <c r="H25" t="str">
+      <c r="U25" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Entry (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Consignment Verification (Soliflex Packaging-4)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Exit (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "}]</v>
       </c>
-      <c r="I25" t="str">
+      <c r="V25" t="str">
         <v>open</v>
       </c>
-      <c r="N25" t="str">
+      <c r="W25" t="str">
         <v xml:space="preserve">KA06AA7776                   </v>
       </c>
-      <c r="O25" t="str">
+      <c r="X25" t="str">
         <v>single</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Y25" t="str">
         <v>INNOVA Polypack</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="Z25" t="str">
         <v>Soliflex Packaging-4</v>
       </c>
-      <c r="R25" t="str">
+      <c r="AA25" t="str">
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC25" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>RFQ_ID#0025</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Plastic containers</v>
+      </c>
+      <c r="D26" t="str">
+        <v>6000</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Raw Materials</v>
+      </c>
+      <c r="F26" t="str">
+        <v>6000</v>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v>&gt; 6 MT</v>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="S26">
+        <v>9</v>
+      </c>
+      <c r="T26" t="str">
+        <v>2025-07-31T14:43:48.588Z</v>
+      </c>
+      <c r="U26" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-31T14:43:57.378Z","comments":"Stage approved","action":"approve","truck_number":"KA06C7727                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (Ambica pattern)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-31T14:43:58.697Z","comments":"Stage approved","action":"approve","truck_number":"KA06C7727                      ","department_name":"Admin"},{"name":"Consignment Verification (Ambica pattern)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-31T14:44:07.364Z","comments":"Vehicle reached with comments: got the consignment","action":"reached_with_comments","truck_number":"KA06C7727                      ","department_name":"Admin"},{"name":"Vehicle Exit (Ambica pattern)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-31T14:44:11.697Z","comments":"Stage approved","action":"approve","truck_number":"KA06C7727                      ","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-31T14:44:13.621Z","comments":"Stage approved","action":"approve","truck_number":"KA06C7727                      ","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-31T14:44:36.505Z","comments":"Vehicle reached with comments: looks good","action":"reached_with_comments","truck_number":"KA06C7727                      ","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-31T14:44:39.469Z","comments":"Stage approved","action":"approve","truck_number":"KA06C7727                      ","department_name":"Admin"}]</v>
+      </c>
+      <c r="V26" t="str">
+        <v>completed</v>
+      </c>
+      <c r="W26" t="str">
+        <v xml:space="preserve">KA06C7727                      </v>
+      </c>
+      <c r="X26" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>Ambica pattern</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>Soliflex Packaging-3</v>
+      </c>
+      <c r="AA26" t="str">
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>RFQ_ID#0026</v>
+      </c>
+      <c r="C27" t="str">
+        <v>werwgrfd</v>
+      </c>
+      <c r="D27" t="str">
+        <v>6000</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Rolls, Wastage</v>
+      </c>
+      <c r="F27" t="str">
+        <v>7692</v>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v>Above 6 tons</v>
+      </c>
+      <c r="L27" t="str">
+        <v>400</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>8092</v>
+      </c>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27" t="str">
+        <v>2025-08-03T17:12:44.317Z</v>
+      </c>
+      <c r="U27" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-08-03T17:12:55.313Z","comments":"Stage approved","action":"approve","truck_number":"KA36B5614                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (Abhinandan Petro Pack PVT LTD)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-08-03T17:12:56.958Z","comments":"Stage approved","action":"approve","truck_number":"KA36B5614                      ","department_name":"Admin"},{"name":"Consignment Verification (Abhinandan Petro Pack PVT LTD)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-08-03T19:08:17.538Z","comments":"Vehicle reached with comments: fregythuy7ji","action":"reached_with_comments","truck_number":"KA36B5614                      ","department_name":"Admin"},{"name":"Vehicle Exit (Abhinandan Petro Pack PVT LTD)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-08-03T19:08:36.255Z","comments":"Stage approved","action":"approve","truck_number":"KA36B5614                      ","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-4)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-08-03T19:08:46.056Z","comments":"Stage approved","action":"approve","truck_number":"KA36B5614                      ","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-4)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-08-03T19:08:54.556Z","comments":"Vehicle reached with comments: gt5hu7yji7j","action":"reached_with_comments","truck_number":"KA36B5614                      ","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-4)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-08-03T19:09:14.491Z","comments":"Stage approved","action":"approve","truck_number":"KA36B5614                      ","department_name":"Admin"}]</v>
+      </c>
+      <c r="V27" t="str">
+        <v>completed</v>
+      </c>
+      <c r="W27" t="str">
+        <v xml:space="preserve">KA36B5614                      </v>
+      </c>
+      <c r="X27" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>Abhinandan Petro Pack PVT LTD</v>
+      </c>
+      <c r="Z27" t="str">
+        <v>Soliflex Packaging-4</v>
+      </c>
+      <c r="AA27" t="str">
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC27" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>RFQ_ID#0027</v>
+      </c>
+      <c r="C28" t="str">
+        <v>plastic 5</v>
+      </c>
+      <c r="D28" t="str">
         <v>7000</v>
       </c>
-      <c r="S25" t="str">
-        <v>175.00</v>
-      </c>
-      <c r="T25" t="str">
-        <v>175.00</v>
-      </c>
-      <c r="U25" t="str">
+      <c r="E28" t="str">
+        <v>Rolls, Wastage</v>
+      </c>
+      <c r="F28" t="str">
+        <v>3846</v>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v>Above 6 tons</v>
+      </c>
+      <c r="L28" t="str">
+        <v>400</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>4246</v>
+      </c>
+      <c r="S28">
+        <v>9</v>
+      </c>
+      <c r="T28" t="str">
+        <v>2025-08-03T17:50:04.601Z</v>
+      </c>
+      <c r="U28" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA52B3482                      "},{"name":"Vehicle Entry Approved (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA52B3482                      "},{"name":"Consignment Verification (Abhinandan Petro Pack PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA52B3482                      "},{"name":"Vehicle Exit (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA52B3482                      "},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA52B3482                      "},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA52B3482                      "},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA52B3482                      "}]</v>
+      </c>
+      <c r="V28" t="str">
+        <v>open</v>
+      </c>
+      <c r="W28" t="str">
+        <v xml:space="preserve">KA52B3482                      </v>
+      </c>
+      <c r="X28" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>Abhinandan Petro Pack PVT LTD</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>Soliflex Packaging-2</v>
+      </c>
+      <c r="AA28" t="str">
+        <v/>
+      </c>
+      <c r="AB28" t="str">
         <v>hours</v>
       </c>
-      <c r="V25" t="str">
-        <v>2</v>
-      </c>
-      <c r="W25" t="str">
-        <v>57648</v>
-      </c>
-      <c r="X25" t="str">
-        <v/>
-      </c>
-      <c r="Y25" t="str">
-        <v>&gt; 6 MT</v>
-      </c>
-      <c r="Z25" t="str">
-        <v>800</v>
-      </c>
-      <c r="AA25" t="str">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="str">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="str">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="str">
+      <c r="AC28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>RFQ_ID#0028</v>
+      </c>
+      <c r="C29" t="str">
+        <v>plastic covers</v>
+      </c>
+      <c r="D29" t="str">
+        <v>6000</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Rolls, Raw Materials</v>
+      </c>
+      <c r="F29" t="str">
+        <v>7692</v>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v>Above 6 tons</v>
+      </c>
+      <c r="L29" t="str">
+        <v>400</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>8092</v>
+      </c>
+      <c r="S29">
+        <v>9</v>
+      </c>
+      <c r="T29" t="str">
+        <v>2025-08-03T19:07:32.841Z</v>
+      </c>
+      <c r="U29" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA529130                         "},{"name":"Vehicle Entry Approved (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA529130                         "},{"name":"Consignment Verification (Abhinandan Petro Pack PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA529130                         "},{"name":"Vehicle Exit (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA529130                         "},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA529130                         "},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA529130                         "},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA529130                         "}]</v>
+      </c>
+      <c r="V29" t="str">
+        <v>open</v>
+      </c>
+      <c r="W29" t="str">
+        <v xml:space="preserve">KA529130                         </v>
+      </c>
+      <c r="X29" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>Abhinandan Petro Pack PVT LTD</v>
+      </c>
+      <c r="Z29" t="str">
+        <v>Soliflex Packaging-2</v>
+      </c>
+      <c r="AA29" t="str">
+        <v/>
+      </c>
+      <c r="AB29" t="str">
+        <v>days</v>
+      </c>
+      <c r="AC29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>RFQ_ID#0029</v>
+      </c>
+      <c r="C30" t="str">
+        <v>adslfkjadlsfkasd</v>
+      </c>
+      <c r="D30" t="str">
         <v>7000</v>
       </c>
-      <c r="AE25" t="str">
-        <v>7800.00</v>
-      </c>
-      <c r="AF25" t="str">
-        <v>-800.00</v>
-      </c>
-      <c r="AG25" t="str">
+      <c r="E30" t="str">
+        <v>Rolls</v>
+      </c>
+      <c r="F30" t="str">
+        <v>7692</v>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v>Above 6 tons</v>
+      </c>
+      <c r="L30" t="str">
+        <v>400</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>8092</v>
+      </c>
+      <c r="S30">
+        <v>9</v>
+      </c>
+      <c r="T30" t="str">
+        <v>2025-08-04T00:01:13.976Z</v>
+      </c>
+      <c r="U30" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-08-04T00:01:29.253Z","comments":"Stage approved","action":"approve","truck_number":"ka05hj8907","department_name":"Admin"},{"name":"Vehicle Entry Approved (Abhinandan Petro Pack PVT LTD)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-08-04T00:01:31.272Z","comments":"Stage approved","action":"approve","truck_number":"ka05hj8907","department_name":"Admin"},{"name":"Consignment Verification (Abhinandan Petro Pack PVT LTD)","role":"stores","status":"completed","approver":"admin11","timestamp":"2025-08-04T00:54:20.067Z","comments":"Vehicle reached with comments: sdfa","action":"reached_with_comments","truck_number":"ka05hj8907","department_name":"Admin"},{"name":"Vehicle Exit (Abhinandan Petro Pack PVT LTD)","role":"security","status":"completed","approver":"admin11","timestamp":"2025-08-04T00:54:21.700Z","comments":"Stage approved","action":"approve","truck_number":"ka05hj8907","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin11","timestamp":"2025-08-04T00:54:23.757Z","comments":"Stage approved","action":"approve","truck_number":"ka05hj8907","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"completed","approver":"admin11","timestamp":"2025-08-04T00:54:27.719Z","comments":"Vehicle reached with comments: asdfads","action":"reached_with_comments","truck_number":"ka05hj8907","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin11","timestamp":"2025-08-04T00:54:29.785Z","comments":"Stage approved","action":"approve","truck_number":"ka05hj8907","department_name":"Admin"}]</v>
+      </c>
+      <c r="V30" t="str">
+        <v>completed</v>
+      </c>
+      <c r="W30" t="str">
+        <v>ka05hj8907</v>
+      </c>
+      <c r="X30" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>Abhinandan Petro Pack PVT LTD</v>
+      </c>
+      <c r="Z30" t="str">
+        <v>Soliflex Packaging-2</v>
+      </c>
+      <c r="AA30" t="str">
+        <v/>
+      </c>
+      <c r="AB30" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>RFQ_ID#0030</v>
+      </c>
+      <c r="S31">
+        <v>9</v>
+      </c>
+      <c r="T31" t="str">
+        <v>2025-08-04T00:05:52.258Z</v>
+      </c>
+      <c r="U31" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt"},{"name":"Vehicle Entry Approved (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Abhinandan Petro Pack PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry Approved (Chakrapani vyapar Private Limited)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (Chakrapani vyapar Private Limited)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (Chakrapani vyapar Private Limited)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":2,"stage_sequence":2},{"name":"Vehicle Entry (IndAutoFilters-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (IndAutoFilters-4)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (IndAutoFilters-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"asdfdghrt","stage_id":2,"stage_sequence":2}]</v>
+      </c>
+      <c r="V31" t="str">
+        <v>open</v>
+      </c>
+      <c r="W31" t="str">
+        <v>asdfdghrt</v>
+      </c>
+      <c r="X31" t="str">
+        <v>multiple</v>
+      </c>
+      <c r="Z31" t="str">
+        <v/>
+      </c>
+      <c r="AA31" t="str">
+        <v>[{"id":1,"source":"Abhinandan Petro Pack PVT LTD","destination":"Soliflex Packaging-3","sequence":1,"materialType":"rubbeer","materialWeight":"2000","selectedCategories":["Rolls"],"invoiceAmount":"","vehicleHeightOption":"0 -&gt; 3 tons","toll":"","totalAmount":"","shippedByVendor":true,"autoPopulationMessage":""},{"id":2,"source":"Chakrapani vyapar Private Limited","destination":"IndAutoFilters-4","sequence":2,"materialType":"asdfadsf","materialWeight":"3000","selectedCategories":["Raw Materials"],"invoiceAmount":"","vehicleHeightOption":"3 -&gt; 6 tons","toll":"","totalAmount":"","shippedByVendor":true,"autoPopulationMessage":""}]</v>
+      </c>
+      <c r="AB31" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>RFQ_ID#0031</v>
+      </c>
+      <c r="S32">
+        <v>19</v>
+      </c>
+      <c r="T32" t="str">
+        <v>2025-08-04T00:22:36.224Z</v>
+      </c>
+      <c r="U32" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     "},{"name":"Vehicle Entry Approved (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Abhinandan Petro Pack PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry (Abhay packaging)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Abhay packaging)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Abhay packaging)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry Approved (Abhay packaging)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (Abhay packaging)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (Abhay packaging)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":2,"stage_sequence":2},{"name":"Vehicle Entry (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (Soliflex Packaging-4)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"HR47B3343                     ","stage_id":2,"stage_sequence":2}]</v>
+      </c>
+      <c r="V32" t="str">
+        <v>open</v>
+      </c>
+      <c r="W32" t="str">
+        <v xml:space="preserve">HR47B3343                     </v>
+      </c>
+      <c r="X32" t="str">
+        <v>multiple</v>
+      </c>
+      <c r="Z32" t="str">
+        <v/>
+      </c>
+      <c r="AA32" t="str">
+        <v>[{"id":1,"source":"Abhinandan Petro Pack PVT LTD","destination":"Abhay packaging","sequence":1,"materialType":"papers","materialWeight":"5000","selectedCategories":["Rolls"],"invoiceAmount":"","vehicleHeightOption":"3 -&gt; 6 tons","toll":"","totalAmount":"","shippedByVendor":true,"autoPopulationMessage":""},{"id":2,"source":"Abhay packaging","destination":"Soliflex Packaging-4","sequence":2,"materialType":"raw","materialWeight":"7000","selectedCategories":["Raw Materials"],"invoiceAmount":"","vehicleHeightOption":"Above 6 tons","toll":"","totalAmount":"","shippedByVendor":false,"autoPopulationMessage":""}]</v>
+      </c>
+      <c r="AB32" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>RFQ_ID#0032</v>
+      </c>
+      <c r="C33" t="str">
+        <v>12345</v>
+      </c>
+      <c r="D33" t="str">
+        <v>5000</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Rolls</v>
+      </c>
+      <c r="F33" t="str">
+        <v>7392</v>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v>3 -&gt; 6 tons</v>
+      </c>
+      <c r="L33" t="str">
+        <v>400</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>7792</v>
+      </c>
+      <c r="S33">
+        <v>19</v>
+      </c>
+      <c r="T33" t="str">
+        <v>2025-08-04T00:34:13.335Z</v>
+      </c>
+      <c r="U33" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"40"},{"name":"Vehicle Entry Approved (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"40"},{"name":"Consignment Verification (Abhinandan Petro Pack PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"40"},{"name":"Vehicle Exit (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"40"},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"40"},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"40"},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"40"}]</v>
+      </c>
+      <c r="V33" t="str">
+        <v>open</v>
+      </c>
+      <c r="W33" t="str">
+        <v>40</v>
+      </c>
+      <c r="X33" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>Abhinandan Petro Pack PVT LTD</v>
+      </c>
+      <c r="Z33" t="str">
+        <v>Soliflex Packaging-2</v>
+      </c>
+      <c r="AA33" t="str">
+        <v/>
+      </c>
+      <c r="AB33" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>RFQ_ID#0033</v>
+      </c>
+      <c r="S34">
+        <v>19</v>
+      </c>
+      <c r="T34" t="str">
+        <v>2025-08-04T00:35:56.337Z</v>
+      </c>
+      <c r="U34" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456"},{"name":"Vehicle Entry Approved (Bright globle)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Bright globle)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Bright globle)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Soliflex Packaging-4)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry Approved (Bulk Liquid Solution)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (Bulk Liquid Solution)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (Bulk Liquid Solution)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":2,"stage_sequence":2},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka2456","stage_id":2,"stage_sequence":2}]</v>
+      </c>
+      <c r="V34" t="str">
+        <v>open</v>
+      </c>
+      <c r="W34" t="str">
+        <v>ka2456</v>
+      </c>
+      <c r="X34" t="str">
+        <v>multiple</v>
+      </c>
+      <c r="Z34" t="str">
+        <v/>
+      </c>
+      <c r="AA34" t="str">
+        <v>[{"id":1,"source":"Bright globle","destination":"Soliflex Packaging-4","sequence":1,"materialType":"lkhlkhlk","materialWeight":"2000","selectedCategories":["Rolls"],"invoiceAmount":"","vehicleHeightOption":"0 -&gt; 3 tons","toll":"","totalAmount":"","shippedByVendor":false,"autoPopulationMessage":""},{"id":2,"source":"Bulk Liquid Solution","destination":"Soliflex Packaging-2","sequence":2,"materialType":"0980978","materialWeight":"700","selectedCategories":["Raw Materials"],"invoiceAmount":"","vehicleHeightOption":"0 -&gt; 3 tons","toll":"","totalAmount":"","shippedByVendor":false,"autoPopulationMessage":""}]</v>
+      </c>
+      <c r="AB34" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>RFQ_ID#0034</v>
+      </c>
+      <c r="C35" t="str">
+        <v>efadsgadfhafd</v>
+      </c>
+      <c r="D35" t="str">
+        <v>6000</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Raw Materials</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2530</v>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v>Above 6 tons</v>
+      </c>
+      <c r="L35" t="str">
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <v>2530</v>
+      </c>
+      <c r="S35">
+        <v>20</v>
+      </c>
+      <c r="T35" t="str">
+        <v>2025-08-04T00:55:03.054Z</v>
+      </c>
+      <c r="U35" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA35B4674                      "},{"name":"Vehicle Entry Approved (Bhagyashree)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA35B4674                      "},{"name":"Consignment Verification (Bhagyashree)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA35B4674                      "},{"name":"Vehicle Exit (Bhagyashree)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA35B4674                      "},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA35B4674                      "},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA35B4674                      "},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA35B4674                      "}]</v>
+      </c>
+      <c r="V35" t="str">
+        <v>open</v>
+      </c>
+      <c r="W35" t="str">
+        <v xml:space="preserve">KA35B4674                      </v>
+      </c>
+      <c r="X35" t="str">
+        <v>single</v>
+      </c>
+      <c r="Y35" t="str">
+        <v>Bhagyashree</v>
+      </c>
+      <c r="Z35" t="str">
+        <v>Soliflex Packaging-3</v>
+      </c>
+      <c r="AA35" t="str">
+        <v/>
+      </c>
+      <c r="AB35" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>RFQ_ID#0035</v>
+      </c>
+      <c r="S36">
+        <v>20</v>
+      </c>
+      <c r="T36" t="str">
+        <v>2025-08-04T00:57:27.208Z</v>
+      </c>
+      <c r="U36" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000"},{"name":"Vehicle Entry Approved (Buildmet Fibres Pvt ltd (Dabaspet))","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Buildmet Fibres Pvt ltd (Dabaspet))","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Buildmet Fibres Pvt ltd (Dabaspet))","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry Approved (Bulk Liquid Solution)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (Bulk Liquid Solution)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (Bulk Liquid Solution)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":2,"stage_sequence":2},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka02ef8000","stage_id":2,"stage_sequence":2}]</v>
+      </c>
+      <c r="V36" t="str">
+        <v>open</v>
+      </c>
+      <c r="W36" t="str">
+        <v>ka02ef8000</v>
+      </c>
+      <c r="X36" t="str">
+        <v>multiple</v>
+      </c>
+      <c r="Z36" t="str">
+        <v/>
+      </c>
+      <c r="AA36" t="str">
+        <v>[{"id":1,"source":"Buildmet Fibres Pvt ltd (Dabaspet)","destination":"Soliflex Packaging-3","sequence":1,"materialType":"sdfadsddsaf","materialWeight":"4000","selectedCategories":["Raw Materials"],"invoiceAmount":"2000","vehicleHeightOption":"3 -&gt; 6 tons","toll":"100","totalAmount":"","shippedByVendor":false,"autoPopulationMessage":""},{"id":2,"source":"Bulk Liquid Solution","destination":"Soliflex Packaging-2","sequence":2,"materialType":"werqewrew","materialWeight":"5000","selectedCategories":["Rolls"],"invoiceAmount":"3000","vehicleHeightOption":"3 -&gt; 6 tons","toll":"100","totalAmount":"","shippedByVendor":true,"autoPopulationMessage":""}]</v>
+      </c>
+      <c r="AB36" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>RFQ_ID#0036</v>
+      </c>
+      <c r="S37">
+        <v>20</v>
+      </c>
+      <c r="T37" t="str">
+        <v>2025-08-04T01:09:44.365Z</v>
+      </c>
+      <c r="U37" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000"},{"name":"Vehicle Entry Approved (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Abhinandan Petro Pack PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Abhinandan Petro Pack PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry (Ambica pattern)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":1,"stage_sequence":1},{"name":"Consignment Verification (Ambica pattern)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":1,"stage_sequence":1},{"name":"Vehicle Exit (Ambica pattern)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":1,"stage_sequence":1},{"name":"Vehicle Entry Approved (Ambica pattern)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (Ambica pattern)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (Ambica pattern)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":2,"stage_sequence":2},{"name":"Vehicle Entry (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":2,"stage_sequence":2},{"name":"Consignment Verification (Soliflex Packaging-4)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":2,"stage_sequence":2},{"name":"Vehicle Exit (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka23ef000","stage_id":2,"stage_sequence":2}]</v>
+      </c>
+      <c r="V37" t="str">
+        <v>open</v>
+      </c>
+      <c r="W37" t="str">
+        <v>ka23ef000</v>
+      </c>
+      <c r="X37" t="str">
+        <v>multiple</v>
+      </c>
+      <c r="Z37" t="str">
+        <v/>
+      </c>
+      <c r="AA37" t="str">
+        <v>[{"id":1,"source":"Abhinandan Petro Pack PVT LTD","destination":"Ambica pattern","sequence":1,"materialType":"rolls","materialWeight":"2000","selectedCategories":["Rolls"],"invoiceAmount":"","vehicleHeightOption":"0 -&gt; 3 tons","toll":"","totalAmount":"","shippedByVendor":true,"autoPopulationMessage":""},{"id":2,"source":"Ambica pattern","destination":"Soliflex Packaging-4","sequence":2,"materialType":"dsfasdfads","materialWeight":"100","selectedCategories":["Raw Materials"],"invoiceAmount":"","vehicleHeightOption":"0 -&gt; 3 tons","toll":"","totalAmount":"","shippedByVendor":false,"autoPopulationMessage":""}]</v>
+      </c>
+      <c r="AB37" t="str">
+        <v>hours</v>
+      </c>
+      <c r="AC37" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AG25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AG37"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2942,7 +3621,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>RFQ_ID#0026</v>
       </c>
       <c r="I13" t="str">
         <v xml:space="preserve">12                          </v>
@@ -3113,7 +3795,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <v>RFQ_ID#0027</v>
       </c>
       <c r="I19" t="str">
         <v xml:space="preserve">18                          </v>
@@ -3139,7 +3824,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <v>RFQ_ID#0028</v>
       </c>
       <c r="I20" t="str">
         <v xml:space="preserve">19                          </v>
@@ -3165,7 +3853,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <v>RFQ_ID#0025</v>
       </c>
       <c r="I21" t="str">
         <v xml:space="preserve">20                          </v>
@@ -3191,7 +3882,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <v>RFQ_ID#0031</v>
       </c>
       <c r="I22" t="str">
         <v xml:space="preserve">21                          </v>
@@ -3246,7 +3940,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H24" t="str">
+        <v>RFQ_ID#0034</v>
       </c>
       <c r="I24" t="str">
         <v xml:space="preserve">23                          </v>
@@ -3371,630 +4068,1441 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>vendor_place_name</v>
+        <v>S/L</v>
       </c>
       <c r="B1" t="str">
-        <v>approx_km</v>
+        <v>Vendor Place</v>
       </c>
       <c r="C1" t="str">
-        <v>S/no</v>
+        <v>Kilometer</v>
       </c>
       <c r="D1" t="str">
-        <v>time_approx</v>
+        <v>Drop 03</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Pick 03</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Drop 36</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Pick 36</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Drop 60</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Pick 60</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Toll charges</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>ABINANDAN PETRO PACK PVT LTD</v>
-      </c>
-      <c r="B2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v xml:space="preserve">Abhay packaging </v>
+      </c>
+      <c r="C2">
+        <v>79</v>
+      </c>
+      <c r="D2">
+        <v>3850</v>
+      </c>
+      <c r="E2">
+        <f>+D2/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F2">
+        <v>4760</v>
+      </c>
+      <c r="G2">
+        <f>+F2/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H2">
+        <f>300+F2</f>
+        <v>5060</v>
+      </c>
+      <c r="I2">
+        <f>+H2/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Abhinandan Petro Pack PVT LTD</v>
+      </c>
+      <c r="C3">
         <v>108</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="D3">
+        <v>6200</v>
+      </c>
+      <c r="E3">
+        <f>+D3/2</f>
+        <v>3100</v>
+      </c>
+      <c r="F3">
+        <v>7392</v>
+      </c>
+      <c r="G3">
+        <f>+F3/2</f>
+        <v>3696</v>
+      </c>
+      <c r="H3">
+        <f>300+F3</f>
+        <v>7692</v>
+      </c>
+      <c r="I3">
+        <f>+H3/2</f>
+        <v>3846</v>
+      </c>
+      <c r="J3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>GOTAWAT INDUSTRIES</v>
-      </c>
-      <c r="B3">
+      <c r="B4" t="str">
+        <v>Ambica pattern</v>
+      </c>
+      <c r="C4">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>3900</v>
+      </c>
+      <c r="E4">
+        <f>+D4/2</f>
+        <v>1950</v>
+      </c>
+      <c r="F4">
+        <v>4980</v>
+      </c>
+      <c r="G4">
+        <f>+F4/2</f>
+        <v>2490</v>
+      </c>
+      <c r="H4">
+        <f>300+F4</f>
+        <v>5280</v>
+      </c>
+      <c r="I4">
+        <f>+H4/2</f>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>BB Industeris</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>4400</v>
+      </c>
+      <c r="E5">
+        <f>+D5/2</f>
+        <v>2200</v>
+      </c>
+      <c r="F5">
+        <v>7200</v>
+      </c>
+      <c r="G5">
+        <f>+F5/2</f>
+        <v>3600</v>
+      </c>
+      <c r="H5">
+        <f>300+F5</f>
+        <v>7500</v>
+      </c>
+      <c r="I5">
+        <f>+H5/2</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Bhagyashree</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>3850</v>
+      </c>
+      <c r="E6">
+        <f>+D6/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F6">
+        <v>4760</v>
+      </c>
+      <c r="G6">
+        <f>+F6/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H6">
+        <f>300+F6</f>
+        <v>5060</v>
+      </c>
+      <c r="I6">
+        <f>+H6/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Bright globle</v>
+      </c>
+      <c r="C7">
+        <v>251</v>
+      </c>
+      <c r="H7">
+        <v>16000</v>
+      </c>
+      <c r="I7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Buildmet Fibres Pvt ltd (Dabaspet)</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>3070</v>
+      </c>
+      <c r="E8">
+        <f>+D8/2</f>
+        <v>1535</v>
+      </c>
+      <c r="F8">
+        <v>3270</v>
+      </c>
+      <c r="G8">
+        <f>+F8/2</f>
+        <v>1635</v>
+      </c>
+      <c r="H8">
+        <f>300+F8</f>
+        <v>3570</v>
+      </c>
+      <c r="I8">
+        <f>+H8/2</f>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v xml:space="preserve">Bulk Liquid Solution </v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>3850</v>
+      </c>
+      <c r="E9">
+        <f>+D9/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F9">
+        <v>4760</v>
+      </c>
+      <c r="G9">
+        <f>+F9/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H9">
+        <f>300+F9</f>
+        <v>5060</v>
+      </c>
+      <c r="I9">
+        <f>+H9/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Bangalore airport</v>
+      </c>
+      <c r="D10">
+        <v>6000</v>
+      </c>
+      <c r="E10">
+        <f>+D10/2</f>
+        <v>3000</v>
+      </c>
+      <c r="F10">
+        <f>+D10+910</f>
+        <v>6910</v>
+      </c>
+      <c r="G10">
+        <f>+F10/2</f>
+        <v>3455</v>
+      </c>
+      <c r="H10">
+        <f>+F10+300</f>
+        <v>7210</v>
+      </c>
+      <c r="I10">
+        <f>+H10/2</f>
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Calibrics</v>
+      </c>
+      <c r="C11">
         <v>30</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ABHAY PACKAGING</v>
-      </c>
-      <c r="B4">
+      <c r="D11">
+        <v>3070</v>
+      </c>
+      <c r="E11">
+        <f>+D11/2</f>
+        <v>1535</v>
+      </c>
+      <c r="F11">
+        <v>3270</v>
+      </c>
+      <c r="G11">
+        <f>+F11/2</f>
+        <v>1635</v>
+      </c>
+      <c r="H11">
+        <f>300+F11</f>
+        <v>3570</v>
+      </c>
+      <c r="I11">
+        <f>+H11/2</f>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v xml:space="preserve">Chakrapani vyapar Private Limited </v>
+      </c>
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>3850</v>
+      </c>
+      <c r="E12">
+        <f>+D12/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F12">
+        <v>4980</v>
+      </c>
+      <c r="G12">
+        <f>+F12/2</f>
+        <v>2490</v>
+      </c>
+      <c r="H12">
+        <f>300+F12</f>
+        <v>5280</v>
+      </c>
+      <c r="I12">
+        <f>+H12/2</f>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Chavao Overs</v>
+      </c>
+      <c r="C13">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>4400</v>
+      </c>
+      <c r="E13">
+        <f>+D13/2</f>
+        <v>2200</v>
+      </c>
+      <c r="F13">
+        <v>7200</v>
+      </c>
+      <c r="G13">
+        <f>+F13/2</f>
+        <v>3600</v>
+      </c>
+      <c r="H13">
+        <f>300+F13</f>
+        <v>7500</v>
+      </c>
+      <c r="I13">
+        <f>+H13/2</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Cheenai plastic</v>
+      </c>
+      <c r="C14">
+        <v>379</v>
+      </c>
+      <c r="H14">
+        <v>20000</v>
+      </c>
+      <c r="I14">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Flexible Industries</v>
+      </c>
+      <c r="C15">
+        <v>375</v>
+      </c>
+      <c r="H15">
+        <v>20000</v>
+      </c>
+      <c r="I15">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v xml:space="preserve">Gotawat Industries </v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>3070</v>
+      </c>
+      <c r="E16">
+        <f>+D16/2</f>
+        <v>1535</v>
+      </c>
+      <c r="F16">
+        <v>3270</v>
+      </c>
+      <c r="G16">
+        <f>+F16/2</f>
+        <v>1635</v>
+      </c>
+      <c r="H16">
+        <f>300+F16</f>
+        <v>3570</v>
+      </c>
+      <c r="I16">
+        <f>+H16/2</f>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Hooks &amp; Buckles</v>
+      </c>
+      <c r="C17">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>3850</v>
+      </c>
+      <c r="E17">
+        <f>+D17/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F17">
+        <v>4760</v>
+      </c>
+      <c r="G17">
+        <f>+F17/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H17">
+        <f>300+F17</f>
+        <v>5060</v>
+      </c>
+      <c r="I17">
+        <f>+H17/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Innova Polypack</v>
+      </c>
+      <c r="C18">
+        <v>123</v>
+      </c>
+      <c r="D18">
+        <v>6200</v>
+      </c>
+      <c r="E18">
+        <f>+D18/2</f>
+        <v>3100</v>
+      </c>
+      <c r="F18">
+        <v>7392</v>
+      </c>
+      <c r="G18">
+        <f>+F18/2</f>
+        <v>3696</v>
+      </c>
+      <c r="H18">
+        <f>300+F18</f>
+        <v>7692</v>
+      </c>
+      <c r="I18">
+        <f>+H18/2</f>
+        <v>3846</v>
+      </c>
+      <c r="J18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>ITC  Limited</v>
+      </c>
+      <c r="C19">
+        <v>350</v>
+      </c>
+      <c r="D19">
+        <v>22000</v>
+      </c>
+      <c r="H19">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>JJ Traders</v>
+      </c>
+      <c r="C20">
         <v>79</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SUNSHINE INDUSTRIES</v>
-      </c>
-      <c r="B5">
+      <c r="D20">
+        <v>3850</v>
+      </c>
+      <c r="E20">
+        <f>+D20/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F20">
+        <v>4760</v>
+      </c>
+      <c r="G20">
+        <f>+F20/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H20">
+        <f>300+F20</f>
+        <v>5060</v>
+      </c>
+      <c r="I20">
+        <f>+H20/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Kamal Tapes</v>
+      </c>
+      <c r="C21">
+        <v>71</v>
+      </c>
+      <c r="D21">
+        <v>3850</v>
+      </c>
+      <c r="E21">
+        <f>+D21/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F21">
+        <v>4760</v>
+      </c>
+      <c r="G21">
+        <f>+F21/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H21">
+        <f>300+F21</f>
+        <v>5060</v>
+      </c>
+      <c r="I21">
+        <f>+H21/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v xml:space="preserve">Mahalakshmi </v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>3070</v>
+      </c>
+      <c r="E22">
+        <f>+D22/2</f>
+        <v>1535</v>
+      </c>
+      <c r="F22">
+        <v>3270</v>
+      </c>
+      <c r="G22">
+        <f>+F22/2</f>
+        <v>1635</v>
+      </c>
+      <c r="H22">
+        <f>300+F22</f>
+        <v>3570</v>
+      </c>
+      <c r="I22">
+        <f>+H22/2</f>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Mega international</v>
+      </c>
+      <c r="C23">
+        <v>115</v>
+      </c>
+      <c r="D23">
+        <v>6200</v>
+      </c>
+      <c r="E23">
+        <f>+D23/2</f>
+        <v>3100</v>
+      </c>
+      <c r="F23">
+        <v>7392</v>
+      </c>
+      <c r="G23">
+        <f>+F23/2</f>
+        <v>3696</v>
+      </c>
+      <c r="H23">
+        <f>300+F23</f>
+        <v>7692</v>
+      </c>
+      <c r="I23">
+        <f>+H23/2</f>
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v xml:space="preserve">Newteck </v>
+      </c>
+      <c r="C24">
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <v>4500</v>
+      </c>
+      <c r="E24">
+        <f>+D24/2</f>
+        <v>2250</v>
+      </c>
+      <c r="F24">
+        <v>7280</v>
+      </c>
+      <c r="G24">
+        <f>+F24/2</f>
+        <v>3640</v>
+      </c>
+      <c r="H24">
+        <f>300+F24</f>
+        <v>7580</v>
+      </c>
+      <c r="I24">
+        <f>+H24/2</f>
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v xml:space="preserve">Paragon Plastics </v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>3950</v>
+      </c>
+      <c r="E25">
+        <f>+D25/2</f>
+        <v>1975</v>
+      </c>
+      <c r="F25">
+        <v>5100</v>
+      </c>
+      <c r="G25">
+        <f>+F25/2</f>
+        <v>2550</v>
+      </c>
+      <c r="H25">
+        <f>300+F25</f>
+        <v>5400</v>
+      </c>
+      <c r="I25">
+        <f>+H25/2</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v xml:space="preserve">Plasmix </v>
+      </c>
+      <c r="C26">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>3850</v>
+      </c>
+      <c r="E26">
+        <f>+D26/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F26">
+        <v>4760</v>
+      </c>
+      <c r="G26">
+        <f>+F26/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H26">
+        <f>300+F26</f>
+        <v>5060</v>
+      </c>
+      <c r="I26">
+        <f>+H26/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v xml:space="preserve">Polylam Industries </v>
+      </c>
+      <c r="C27">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>3850</v>
+      </c>
+      <c r="E27">
+        <f>+D27/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F27">
+        <v>4760</v>
+      </c>
+      <c r="G27">
+        <f>+F27/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H27">
+        <f>300+F27</f>
+        <v>5060</v>
+      </c>
+      <c r="I27">
+        <f>+H27/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Pradeep trader</v>
+      </c>
+      <c r="C28">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>4200</v>
+      </c>
+      <c r="E28">
+        <f>+D28/2</f>
+        <v>2100</v>
+      </c>
+      <c r="F28">
+        <v>6200</v>
+      </c>
+      <c r="G28">
+        <f>+F28/2</f>
+        <v>3100</v>
+      </c>
+      <c r="H28">
+        <f>300+F28</f>
+        <v>6500</v>
+      </c>
+      <c r="I28">
+        <f>+H28/2</f>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Presting Venus</v>
+      </c>
+      <c r="C29">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>3950</v>
+      </c>
+      <c r="E29">
+        <f>+D29/2</f>
+        <v>1975</v>
+      </c>
+      <c r="F29">
+        <v>5100</v>
+      </c>
+      <c r="G29">
+        <f>+F29/2</f>
+        <v>2550</v>
+      </c>
+      <c r="H29">
+        <f>300+F29</f>
+        <v>5400</v>
+      </c>
+      <c r="I29">
+        <f>+H29/2</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Priyadarshini</v>
+      </c>
+      <c r="C30">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>3950</v>
+      </c>
+      <c r="E30">
+        <f>+D30/2</f>
+        <v>1975</v>
+      </c>
+      <c r="F30">
+        <v>4980</v>
+      </c>
+      <c r="G30">
+        <f>+F30/2</f>
+        <v>2490</v>
+      </c>
+      <c r="H30">
+        <f>300+F30</f>
+        <v>5280</v>
+      </c>
+      <c r="I30">
+        <f>+H30/2</f>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Reliance Industries limited(dodhabalapura road)</v>
+      </c>
+      <c r="C31">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>3650</v>
+      </c>
+      <c r="E31">
+        <f>+D31/2</f>
+        <v>1825</v>
+      </c>
+      <c r="F31">
+        <v>4500</v>
+      </c>
+      <c r="G31">
+        <f>+F31/2</f>
+        <v>2250</v>
+      </c>
+      <c r="H31">
+        <f>300+F31</f>
+        <v>4800</v>
+      </c>
+      <c r="I31">
+        <f>+H31/2</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Reliance Industries limited(Nelamangala)</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>3500</v>
+      </c>
+      <c r="E32">
+        <f>+D32/2</f>
+        <v>1750</v>
+      </c>
+      <c r="F32">
+        <v>4000</v>
+      </c>
+      <c r="G32">
+        <f>+F32/2</f>
+        <v>2000</v>
+      </c>
+      <c r="H32">
+        <f>300+F32</f>
+        <v>4300</v>
+      </c>
+      <c r="I32">
+        <f>+H32/2</f>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Rotech enginering</v>
+      </c>
+      <c r="C33">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>3950</v>
+      </c>
+      <c r="E33">
+        <f>+D33/2</f>
+        <v>1975</v>
+      </c>
+      <c r="F33">
+        <v>4760</v>
+      </c>
+      <c r="G33">
+        <f>+F33/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H33">
+        <f>300+F33</f>
+        <v>5060</v>
+      </c>
+      <c r="I33">
+        <f>+H33/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Rukuma plastic</v>
+      </c>
+      <c r="C34">
+        <v>66</v>
+      </c>
+      <c r="D34">
+        <v>3850</v>
+      </c>
+      <c r="E34">
+        <f>+D34/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F34">
+        <v>4760</v>
+      </c>
+      <c r="G34">
+        <f>+F34/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H34">
+        <f>300+F34</f>
+        <v>5060</v>
+      </c>
+      <c r="I34">
+        <f>+H34/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Seenu transporter/Roto colour</v>
+      </c>
+      <c r="C35">
+        <v>71</v>
+      </c>
+      <c r="D35">
+        <v>3850</v>
+      </c>
+      <c r="E35">
+        <f>+D35/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F35">
+        <v>4760</v>
+      </c>
+      <c r="G35">
+        <f>+F35/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H35">
+        <f>300+F35</f>
+        <v>5060</v>
+      </c>
+      <c r="I35">
+        <f>+H35/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Shree tech rubber</v>
+      </c>
+      <c r="C36">
+        <v>69</v>
+      </c>
+      <c r="D36">
+        <v>3950</v>
+      </c>
+      <c r="E36">
+        <f>+D36/2</f>
+        <v>1975</v>
+      </c>
+      <c r="F36">
+        <v>4760</v>
+      </c>
+      <c r="G36">
+        <f>+F36/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H36">
+        <f>300+F36</f>
+        <v>5060</v>
+      </c>
+      <c r="I36">
+        <f>+H36/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Sri sai Packaging</v>
+      </c>
+      <c r="C37">
+        <v>88</v>
+      </c>
+      <c r="D37">
+        <v>4800</v>
+      </c>
+      <c r="E37">
+        <f>+D37/2</f>
+        <v>2400</v>
+      </c>
+      <c r="F37">
+        <v>7392</v>
+      </c>
+      <c r="G37">
+        <f>+F37/2</f>
+        <v>3696</v>
+      </c>
+      <c r="H37">
+        <f>300+F37</f>
+        <v>7692</v>
+      </c>
+      <c r="I37">
+        <f>+H37/2</f>
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Sri Vishnu rubber product</v>
+      </c>
+      <c r="C38">
+        <v>71</v>
+      </c>
+      <c r="D38">
+        <v>3850</v>
+      </c>
+      <c r="E38">
+        <f>+D38/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F38">
+        <v>4760</v>
+      </c>
+      <c r="G38">
+        <f>+F38/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H38">
+        <f>300+F38</f>
+        <v>5060</v>
+      </c>
+      <c r="I38">
+        <f>+H38/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v xml:space="preserve">SRM Products Private Limited </v>
+      </c>
+      <c r="C39">
+        <v>67</v>
+      </c>
+      <c r="D39">
+        <v>3950</v>
+      </c>
+      <c r="E39">
+        <f>+D39/2</f>
+        <v>1975</v>
+      </c>
+      <c r="F39">
+        <v>5100</v>
+      </c>
+      <c r="G39">
+        <f>+F39/2</f>
+        <v>2550</v>
+      </c>
+      <c r="H39">
+        <f>300+F39</f>
+        <v>5400</v>
+      </c>
+      <c r="I39">
+        <f>+H39/2</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v xml:space="preserve">Sunshine Industries </v>
+      </c>
+      <c r="C40">
         <v>106</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>INNOVA Polypack</v>
-      </c>
-      <c r="B6">
-        <v>123</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>POLYLAM INDUSTRIES</v>
-      </c>
-      <c r="B7">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>BULK LIQUID SOLUTIONS</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>KAMAL TAPES</v>
-      </c>
-      <c r="B9">
+      <c r="D40">
+        <v>6200</v>
+      </c>
+      <c r="E40">
+        <f>+D40/2</f>
+        <v>3100</v>
+      </c>
+      <c r="F40">
+        <v>7392</v>
+      </c>
+      <c r="G40">
+        <f>+F40/2</f>
+        <v>3696</v>
+      </c>
+      <c r="H40">
+        <f>300+F40</f>
+        <v>7692</v>
+      </c>
+      <c r="I40">
+        <f>+H40/2</f>
+        <v>3846</v>
+      </c>
+      <c r="J40">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Synpack/Synthetic</v>
+      </c>
+      <c r="C41">
         <v>71</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Rotech enginering</v>
-      </c>
-      <c r="B10">
+      <c r="D41">
+        <v>3850</v>
+      </c>
+      <c r="E41">
+        <f>+D41/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F41">
+        <v>4760</v>
+      </c>
+      <c r="G41">
+        <f>+F41/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H41">
+        <f>300+F41</f>
+        <v>5060</v>
+      </c>
+      <c r="I41">
+        <f>+H41/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>VB Polypack</v>
+      </c>
+      <c r="C42">
         <v>68</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
-      </c>
-      <c r="B11">
+      <c r="D42">
+        <v>3850</v>
+      </c>
+      <c r="E42">
+        <f>+D42/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F42">
+        <v>4760</v>
+      </c>
+      <c r="G42">
+        <f>+F42/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H42">
+        <f>300+F42</f>
+        <v>5060</v>
+      </c>
+      <c r="I42">
+        <f>+H42/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>ved industries</v>
+      </c>
+      <c r="C43">
+        <v>465</v>
+      </c>
+      <c r="H43">
+        <v>21000</v>
+      </c>
+      <c r="I43">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Venkatadri polymers</v>
+      </c>
+      <c r="C44">
         <v>69</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v xml:space="preserve">PARAGON PLASTICS, </v>
-      </c>
-      <c r="B12">
-        <v>68</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Reliance Industries limited(Nelamangala)</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Reliance Industries limited(dodhabalapura road)</v>
-      </c>
-      <c r="B14">
-        <v>52</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>SRM PRODUCTS PRIVATE LIMITED</v>
-      </c>
-      <c r="B15">
-        <v>67</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Presting Venus</v>
-      </c>
-      <c r="B16">
-        <v>67</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Buildmet Fibres Pvt ltd (Dabaspet)</v>
-      </c>
-      <c r="B17">
+      <c r="D44">
+        <v>3850</v>
+      </c>
+      <c r="E44">
+        <f>+D44/2</f>
+        <v>1925</v>
+      </c>
+      <c r="F44">
+        <v>4760</v>
+      </c>
+      <c r="G44">
+        <f>+F44/2</f>
+        <v>2380</v>
+      </c>
+      <c r="H44">
+        <f>300+F44</f>
+        <v>5060</v>
+      </c>
+      <c r="I44">
+        <f>+H44/2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>VRL  (Tumkur)</v>
+      </c>
+      <c r="C45">
         <v>25</v>
       </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>VB Polypack</v>
-      </c>
-      <c r="B18">
-        <v>68</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Pradeep trader</v>
-      </c>
-      <c r="B19">
-        <v>66</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Newteck</v>
-      </c>
-      <c r="B20">
-        <v>86</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Bhagyashree</v>
-      </c>
-      <c r="B21">
-        <v>65</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Hooks &amp; Buckles</v>
-      </c>
-      <c r="B22">
-        <v>70</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Plasmix</v>
-      </c>
-      <c r="B23">
-        <v>64</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Sri sai Packaging</v>
-      </c>
-      <c r="B24">
-        <v>88</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Shree tech rubber</v>
-      </c>
-      <c r="B25">
-        <v>69</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Sri Vishnu rubber product</v>
-      </c>
-      <c r="B26">
-        <v>71</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Ambica pattern</v>
-      </c>
-      <c r="B27">
-        <v>71</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Priyadarshini</v>
-      </c>
-      <c r="B28">
-        <v>79</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Seenu transporter/Roto colour</v>
-      </c>
-      <c r="B29">
-        <v>71</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Synpack/Synthetic</v>
-      </c>
-      <c r="B30">
-        <v>71</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Mahalakshmi</v>
-      </c>
-      <c r="B31">
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Calibrics</v>
-      </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Chavao Overs</v>
-      </c>
-      <c r="B33">
-        <v>116</v>
-      </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>JJ Traders</v>
-      </c>
-      <c r="B34">
-        <v>79</v>
-      </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>VRL  (Tumkur)</v>
-      </c>
-      <c r="B35">
-        <v>25</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>BB Industeris</v>
-      </c>
-      <c r="B36">
-        <v>85</v>
-      </c>
-      <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Venkatadri polymers</v>
-      </c>
-      <c r="B37">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Rukuma plastic</v>
-      </c>
-      <c r="B38">
-        <v>66</v>
-      </c>
-      <c r="C38">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Mega international</v>
-      </c>
-      <c r="B39">
-        <v>115</v>
-      </c>
-      <c r="C39">
-        <v>43</v>
-      </c>
-      <c r="D39">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>Flexible Industries</v>
-      </c>
-      <c r="B40">
-        <v>375</v>
-      </c>
-      <c r="C40">
-        <v>38</v>
-      </c>
-      <c r="D40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>Cheenai plastic</v>
-      </c>
-      <c r="B41">
-        <v>379</v>
-      </c>
-      <c r="C41">
-        <v>39</v>
-      </c>
-      <c r="D41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>ITC  Limited</v>
-      </c>
-      <c r="B42">
-        <v>350</v>
-      </c>
-      <c r="C42">
-        <v>40</v>
-      </c>
-      <c r="D42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Bright globle</v>
-      </c>
-      <c r="B43">
-        <v>251</v>
-      </c>
-      <c r="C43">
-        <v>41</v>
-      </c>
-      <c r="D43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>ved industries</v>
-      </c>
-      <c r="B44">
-        <v>465</v>
-      </c>
-      <c r="C44">
-        <v>42</v>
-      </c>
-      <c r="D44">
-        <v>24</v>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+      <c r="E45">
+        <f>+D45/2</f>
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>1800</v>
+      </c>
+      <c r="G45">
+        <f>+F45/2</f>
+        <v>900</v>
+      </c>
+      <c r="H45">
+        <f>300+F45</f>
+        <v>2100</v>
+      </c>
+      <c r="I45">
+        <f>+H45/2</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Vertex Phenumatics</v>
+      </c>
+      <c r="D46">
+        <v>4650</v>
+      </c>
+      <c r="E46">
+        <f>+D46/2</f>
+        <v>2325</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J46"/>
   </ignoredErrors>
 </worksheet>
 </file>